--- a/TEMOA_Europe_Results/1_Results_bau/_9_Industrial consumption.xlsx
+++ b/TEMOA_Europe_Results/1_Results_bau/_9_Industrial consumption.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="168">
   <si>
     <t>tech</t>
   </si>
@@ -266,6 +266,9 @@
     <t>IND_NM_LIM_LRK_NEW</t>
   </si>
   <si>
+    <t>IND_NM_GLS_FOSS_NEW</t>
+  </si>
+  <si>
     <t>IND_NM_GLS_ELEC_NEW</t>
   </si>
   <si>
@@ -411,6 +414,9 @@
   </si>
   <si>
     <t>IND_OTH_PH_COA_NEW</t>
+  </si>
+  <si>
+    <t>IND_OTH_PH_COK_NEW</t>
   </si>
   <si>
     <t>IND_OTH_PH_ELC_NEW</t>
@@ -870,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L203"/>
+  <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -919,22 +925,22 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D2">
-        <v>48.52024725231716</v>
+        <v>47.34574278323413</v>
       </c>
       <c r="E2">
-        <v>29.60857292211188</v>
+        <v>29.60857292211177</v>
       </c>
       <c r="F2">
-        <v>30.52371328209714</v>
+        <v>31.85868720022289</v>
       </c>
       <c r="G2">
-        <v>28.12814427600627</v>
+        <v>28.12814427600628</v>
       </c>
       <c r="H2">
-        <v>14.06407213800311</v>
+        <v>14.11777132253005</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -957,22 +963,22 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D3">
-        <v>7.339542453608781</v>
+        <v>7.17359739139911</v>
       </c>
       <c r="E3">
-        <v>4.486147412441192</v>
+        <v>4.486147412441189</v>
       </c>
       <c r="F3">
-        <v>4.239404622513492</v>
+        <v>4.424817666699115</v>
       </c>
       <c r="G3">
-        <v>4.261840041819131</v>
+        <v>4.261840041819132</v>
       </c>
       <c r="H3">
-        <v>2.130920020909512</v>
+        <v>2.130920020909569</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -995,22 +1001,22 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D4">
-        <v>4.403725472165289</v>
+        <v>4.304158434839465</v>
       </c>
       <c r="E4">
-        <v>2.691688447464715</v>
+        <v>2.691688447464767</v>
       </c>
       <c r="F4">
-        <v>2.543642773508094</v>
+        <v>2.654890600019468</v>
       </c>
       <c r="G4">
-        <v>2.557104025091485</v>
+        <v>2.557104025091478</v>
       </c>
       <c r="H4">
-        <v>1.278552012545741</v>
+        <v>1.27855201254574</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1033,13 +1039,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D5">
-        <v>0.1506246611312058</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2.691688447464722</v>
+        <v>2.691688447464276</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1071,22 +1077,22 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D6">
-        <v>17.37326690110533</v>
+        <v>17.20515598353164</v>
       </c>
       <c r="E6">
-        <v>8.972294824882391</v>
+        <v>8.972294824882383</v>
       </c>
       <c r="F6">
-        <v>8.478809245026978</v>
+        <v>8.849635333398208</v>
       </c>
       <c r="G6">
-        <v>8.523680083638261</v>
+        <v>8.523680083638233</v>
       </c>
       <c r="H6">
-        <v>4.26184004181824</v>
+        <v>4.261840041819171</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1109,16 +1115,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D7">
-        <v>39.63352924948761</v>
+        <v>38.73742591355519</v>
       </c>
       <c r="E7">
-        <v>24.22519602718244</v>
+        <v>24.2251960271824</v>
       </c>
       <c r="F7">
-        <v>22.89278496157284</v>
+        <v>23.89401540017509</v>
       </c>
       <c r="G7">
         <v>23.01393622582331</v>
@@ -1147,22 +1153,22 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D8">
-        <v>9.898746550137993</v>
+        <v>9.898746550137915</v>
       </c>
       <c r="E8">
-        <v>7.918997240110396</v>
+        <v>7.918997240110394</v>
       </c>
       <c r="F8">
-        <v>5.939247930082783</v>
+        <v>5.939247930082754</v>
       </c>
       <c r="G8">
-        <v>3.959498620055198</v>
+        <v>3.95949862005518</v>
       </c>
       <c r="H8">
-        <v>1.979749310027598</v>
+        <v>1.979749310027593</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1185,22 +1191,22 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D9">
         <v>2.284326126954917</v>
       </c>
       <c r="E9">
-        <v>1.827460901563937</v>
+        <v>1.827460901563966</v>
       </c>
       <c r="F9">
         <v>1.370595676172953</v>
       </c>
       <c r="G9">
-        <v>0.913730450781969</v>
+        <v>0.9137304507819689</v>
       </c>
       <c r="H9">
-        <v>0.456865225390977</v>
+        <v>0.4568652253909842</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1223,19 +1229,19 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D10">
-        <v>1.522884084636615</v>
+        <v>1.52288408463661</v>
       </c>
       <c r="E10">
-        <v>1.218307267709292</v>
+        <v>1.218307267709282</v>
       </c>
       <c r="F10">
-        <v>0.913730450781969</v>
+        <v>0.9137304507819638</v>
       </c>
       <c r="G10">
-        <v>0.6091536338546411</v>
+        <v>0.609153633854646</v>
       </c>
       <c r="H10">
         <v>0.3045768169273229</v>
@@ -1261,22 +1267,22 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D11">
-        <v>8.375862465501402</v>
+        <v>8.375862465501463</v>
       </c>
       <c r="E11">
-        <v>6.70068997240111</v>
+        <v>6.700689972401104</v>
       </c>
       <c r="F11">
         <v>5.025517479300828</v>
       </c>
       <c r="G11">
-        <v>3.350344986200545</v>
+        <v>3.350344986200548</v>
       </c>
       <c r="H11">
-        <v>1.675172493100275</v>
+        <v>1.675172493100276</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1299,22 +1305,22 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D12">
         <v>10.6601885924563</v>
       </c>
       <c r="E12">
-        <v>8.528150873965039</v>
+        <v>8.52815087396505</v>
       </c>
       <c r="F12">
-        <v>6.396113155473782</v>
+        <v>6.39611315547378</v>
       </c>
       <c r="G12">
         <v>4.264075436982522</v>
       </c>
       <c r="H12">
-        <v>2.132037718491257</v>
+        <v>2.132037718491259</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1337,19 +1343,19 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D13">
         <v>110.9311274509804</v>
       </c>
       <c r="E13">
-        <v>88.7449019607843</v>
+        <v>88.74490196078429</v>
       </c>
       <c r="F13">
-        <v>66.55867647058824</v>
+        <v>66.55867647058822</v>
       </c>
       <c r="G13">
-        <v>44.37245098039215</v>
+        <v>44.37245098039216</v>
       </c>
       <c r="H13">
         <v>22.18622549019608</v>
@@ -1375,22 +1381,22 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D14">
-        <v>4.870147058823528</v>
+        <v>4.870147058823529</v>
       </c>
       <c r="E14">
-        <v>3.896117647058824</v>
+        <v>3.896117647058823</v>
       </c>
       <c r="F14">
-        <v>2.922088235294118</v>
+        <v>2.922088235294117</v>
       </c>
       <c r="G14">
         <v>1.948058823529412</v>
       </c>
       <c r="H14">
-        <v>0.974029411764706</v>
+        <v>0.9740294117647059</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1413,22 +1419,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D15">
-        <v>9.199166666666612</v>
+        <v>9.199166666666667</v>
       </c>
       <c r="E15">
-        <v>7.359333333333334</v>
+        <v>7.359333333333333</v>
       </c>
       <c r="F15">
-        <v>5.5195</v>
+        <v>5.519499999999995</v>
       </c>
       <c r="G15">
-        <v>3.679666666666668</v>
+        <v>3.679666666666667</v>
       </c>
       <c r="H15">
-        <v>1.839833333333333</v>
+        <v>1.839833333333342</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1451,7 +1457,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D16">
         <v>8.822377622377612</v>
@@ -1460,7 +1466,7 @@
         <v>7.057902097902095</v>
       </c>
       <c r="F16">
-        <v>5.293426573426567</v>
+        <v>5.293426573426561</v>
       </c>
       <c r="G16">
         <v>3.528951048951048</v>
@@ -1489,10 +1495,10 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D17">
-        <v>0.6616783216783216</v>
+        <v>0.6616783216783215</v>
       </c>
       <c r="E17">
         <v>0.5293426573426574</v>
@@ -1501,10 +1507,10 @@
         <v>0.397006993006993</v>
       </c>
       <c r="G17">
-        <v>0.2646713286713286</v>
+        <v>0.2646713286713298</v>
       </c>
       <c r="H17">
-        <v>0.1323356643356643</v>
+        <v>0.1323356643356646</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1527,28 +1533,28 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D18">
-        <v>261.0202930049507</v>
+        <v>261.1624917551952</v>
       </c>
       <c r="E18">
-        <v>0.5240013620365414</v>
+        <v>81.05463505814171</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>80.94764616713216</v>
       </c>
       <c r="G18">
-        <v>33.82249974484333</v>
+        <v>114.2532410622383</v>
       </c>
       <c r="H18">
-        <v>40.80056160423901</v>
+        <v>121.6906516512518</v>
       </c>
       <c r="I18">
-        <v>43.3652991856311</v>
+        <v>127.2063703274406</v>
       </c>
       <c r="J18">
-        <v>28.13528239010382</v>
+        <v>29.29896484328014</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1565,7 +1571,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D19">
         <v>13.78658536585366</v>
@@ -1603,7 +1609,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D20">
         <v>4.210843373493976</v>
@@ -1641,16 +1647,16 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D21">
-        <v>61.84117647058823</v>
+        <v>80.01174345039692</v>
       </c>
       <c r="E21">
         <v>51.53431372549021</v>
       </c>
       <c r="F21">
-        <v>46.86718847534031</v>
+        <v>41.22745098039216</v>
       </c>
       <c r="G21">
         <v>30.92058823529412</v>
@@ -1679,7 +1685,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D22">
         <v>5.99390243902439</v>
@@ -1717,7 +1723,7 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D23">
         <v>0.3719512195121952</v>
@@ -1755,10 +1761,10 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D24">
-        <v>21.30722891566265</v>
+        <v>28.68214385824735</v>
       </c>
       <c r="E24">
         <v>17.75602409638554</v>
@@ -1793,7 +1799,7 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D25">
         <v>0.8253012048192772</v>
@@ -1831,7 +1837,7 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D26">
         <v>25.390625</v>
@@ -1869,7 +1875,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D27">
         <v>7.623529411764707</v>
@@ -1907,7 +1913,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D28">
         <v>168.5681395348837</v>
@@ -1945,13 +1951,13 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D29">
-        <v>3.790194105586574</v>
+        <v>8.228999999999999</v>
       </c>
       <c r="E29">
-        <v>6.583199999999999</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1983,7 +1989,7 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2021,13 +2027,13 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D31">
-        <v>4.438805894413425</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>6.583199999999999</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2059,34 +2065,34 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D32">
-        <v>11.96509169523792</v>
+        <v>11.96509169523806</v>
       </c>
       <c r="E32">
-        <v>58.2991374867045</v>
+        <v>58.29913748670361</v>
       </c>
       <c r="F32">
-        <v>87.83701966502122</v>
+        <v>87.83941984996707</v>
       </c>
       <c r="G32">
-        <v>155.2057944533078</v>
+        <v>155.208496627611</v>
       </c>
       <c r="H32">
-        <v>218.3076606250445</v>
+        <v>212.4440049539719</v>
       </c>
       <c r="I32">
-        <v>245.5040357683125</v>
+        <v>245.5065453798039</v>
       </c>
       <c r="J32">
-        <v>251.9975693308001</v>
+        <v>252.0000789422945</v>
       </c>
       <c r="K32">
-        <v>251.9975693308001</v>
+        <v>252.0000789422944</v>
       </c>
       <c r="L32">
-        <v>254.930641491793</v>
+        <v>254.9306589398336</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2097,7 +2103,7 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2106,22 +2112,22 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>3.552890975680072</v>
+        <v>3.550688077798809</v>
       </c>
       <c r="G33">
-        <v>3.552890975680068</v>
+        <v>3.550688077798809</v>
       </c>
       <c r="H33">
-        <v>3.552890975680071</v>
+        <v>3.550688077798809</v>
       </c>
       <c r="I33">
-        <v>3.552890975680072</v>
+        <v>3.550688077798809</v>
       </c>
       <c r="J33">
-        <v>0.5351232616714086</v>
+        <v>0.5329203637917459</v>
       </c>
       <c r="K33">
-        <v>3.552890975680072</v>
+        <v>3.550688077798809</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -2135,7 +2141,7 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2147,22 +2153,22 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>134.3771978872767</v>
+        <v>134.5683658250625</v>
       </c>
       <c r="H34">
-        <v>218.6036702645815</v>
+        <v>219.0207663205398</v>
       </c>
       <c r="I34">
-        <v>218.6036702645815</v>
+        <v>219.0207663205398</v>
       </c>
       <c r="J34">
-        <v>226.8947269372776</v>
+        <v>223.579963374322</v>
       </c>
       <c r="K34">
-        <v>238.6502805453664</v>
+        <v>240.4512620367553</v>
       </c>
       <c r="L34">
-        <v>240.0341659807971</v>
+        <v>240.4512620367553</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2173,34 +2179,34 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D35">
-        <v>88.01931846796239</v>
+        <v>91.74947301922731</v>
       </c>
       <c r="E35">
-        <v>157.1901622786039</v>
+        <v>157.2922182658596</v>
       </c>
       <c r="F35">
-        <v>158.9209695136088</v>
+        <v>154.9275145354926</v>
       </c>
       <c r="G35">
-        <v>94.61232346645696</v>
+        <v>94.66578176361149</v>
       </c>
       <c r="H35">
-        <v>76.05510169371259</v>
+        <v>78.04488919673656</v>
       </c>
       <c r="I35">
-        <v>135.3943878786384</v>
+        <v>134.6266169519859</v>
       </c>
       <c r="J35">
-        <v>133.7121169475944</v>
+        <v>135.3460962396874</v>
       </c>
       <c r="K35">
-        <v>124.6779678542732</v>
+        <v>123.7941040024941</v>
       </c>
       <c r="L35">
-        <v>125.6488089217559</v>
+        <v>125.4031032665469</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2211,25 +2217,25 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>85.99021910096309</v>
+        <v>85.72958289866543</v>
       </c>
       <c r="F36">
-        <v>80.8027721770718</v>
+        <v>80.55785911724311</v>
       </c>
       <c r="G36">
-        <v>75.61133183753473</v>
+        <v>75.38215402421082</v>
       </c>
       <c r="H36">
-        <v>70.42787832928924</v>
+        <v>70.21441155439852</v>
       </c>
       <c r="I36">
-        <v>70.42787832928924</v>
+        <v>70.21441155439852</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2249,34 +2255,34 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D37">
         <v>23.74402799999985</v>
       </c>
       <c r="E37">
-        <v>22.64735081345983</v>
+        <v>22.9679785999984</v>
       </c>
       <c r="F37">
-        <v>84.6975369801435</v>
+        <v>85.2661719305365</v>
       </c>
       <c r="G37">
-        <v>87.82000304695248</v>
+        <v>89.38986843594752</v>
       </c>
       <c r="H37">
-        <v>102.5705884909231</v>
+        <v>104.1404538799184</v>
       </c>
       <c r="I37">
-        <v>117.3211739348939</v>
+        <v>118.8910393238892</v>
       </c>
       <c r="J37">
-        <v>120.4764918497058</v>
+        <v>122.0463572386994</v>
       </c>
       <c r="K37">
-        <v>117.4587241356971</v>
+        <v>110.7614298134611</v>
       </c>
       <c r="L37">
-        <v>121.0116151113772</v>
+        <v>122.5792776024912</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2287,7 +2293,7 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2296,25 +2302,25 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>13.09949957506745</v>
+        <v>12.82468778286474</v>
       </c>
       <c r="G38">
-        <v>112.6636492355377</v>
+        <v>111.4688072526862</v>
       </c>
       <c r="H38">
-        <v>171.5131386247832</v>
+        <v>172.743408419865</v>
       </c>
       <c r="I38">
-        <v>208.8827034876258</v>
+        <v>225.733716099175</v>
       </c>
       <c r="J38">
-        <v>178.6834127223491</v>
+        <v>182.7939944886989</v>
       </c>
       <c r="K38">
-        <v>196.4082561765464</v>
+        <v>213.5209677333602</v>
       </c>
       <c r="L38">
-        <v>219.0089030338095</v>
+        <v>213.0988448161306</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2325,7 +2331,7 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2343,16 +2349,16 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>37.55433927306587</v>
+        <v>4.403918927016843</v>
       </c>
       <c r="J39">
-        <v>210.0813532730303</v>
+        <v>198.7473001379223</v>
       </c>
       <c r="K39">
-        <v>181.9498606860288</v>
+        <v>161.8155585410362</v>
       </c>
       <c r="L39">
-        <v>132.6053957646922</v>
+        <v>140.8189907662232</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2363,34 +2369,34 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1.283313447825938</v>
+        <v>1.43138560015616</v>
       </c>
       <c r="F40">
-        <v>1.233899728671676</v>
+        <v>1.376270393370624</v>
       </c>
       <c r="G40">
-        <v>14.71437702043603</v>
+        <v>23.48687591260896</v>
       </c>
       <c r="H40">
-        <v>14.71390923934297</v>
+        <v>34.82689576017837</v>
       </c>
       <c r="I40">
-        <v>35.04063835454885</v>
+        <v>34.82689576017836</v>
       </c>
       <c r="J40">
-        <v>35.03805359791066</v>
+        <v>34.82689576017835</v>
       </c>
       <c r="K40">
-        <v>33.80633034762222</v>
+        <v>33.45295101364761</v>
       </c>
       <c r="L40">
-        <v>27.06523735309495</v>
+        <v>22.39433449479561</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2401,31 +2407,31 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D41">
-        <v>1.106778394324266</v>
+        <v>1.10677839432417</v>
       </c>
       <c r="E41">
-        <v>10.13331579329093</v>
+        <v>9.991547299020745</v>
       </c>
       <c r="F41">
-        <v>18.11850704026106</v>
+        <v>17.97807705675735</v>
       </c>
       <c r="G41">
-        <v>17.01172864593697</v>
+        <v>7.986528772050134</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>12.43554292028235</v>
+        <v>12.43554292028265</v>
       </c>
       <c r="J41">
-        <v>13.13943904351951</v>
+        <v>16.87129866243318</v>
       </c>
       <c r="K41">
-        <v>-5.420452382021022E-07</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2439,34 +2445,34 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0.09000900090007176</v>
+        <v>0.09000900090042066</v>
       </c>
       <c r="F42">
-        <v>0.09000900090009063</v>
+        <v>0.09000900090008884</v>
       </c>
       <c r="G42">
-        <v>0.09000900090004141</v>
+        <v>0.09001060786065075</v>
       </c>
       <c r="H42">
-        <v>43.15989321972538</v>
+        <v>10.50528391163125</v>
       </c>
       <c r="I42">
-        <v>5.515544945759462</v>
+        <v>6.011355983714307</v>
       </c>
       <c r="J42">
-        <v>5.418253875081231</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>29.65791007810065</v>
+        <v>30.37220852789619</v>
       </c>
       <c r="L42">
-        <v>39.82432716459495</v>
+        <v>47.51303446096426</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2477,7 +2483,7 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2492,19 +2498,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0.0007536267403636363</v>
+        <v>0.0007536267403636364</v>
       </c>
       <c r="I43">
-        <v>0.00468675312</v>
+        <v>0.004687449983999999</v>
       </c>
       <c r="J43">
-        <v>0.02910523636363637</v>
+        <v>0.02910612328145455</v>
       </c>
       <c r="K43">
-        <v>0.02910575075424996</v>
+        <v>0.02910656673937718</v>
       </c>
       <c r="L43">
-        <v>1.066780909090904</v>
+        <v>1.066780909090908</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2515,34 +2521,34 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>247.7184052188263</v>
+        <v>169.5541493453181</v>
       </c>
       <c r="F44">
-        <v>247.7154484543471</v>
+        <v>169.5541493453181</v>
       </c>
       <c r="G44">
-        <v>247.7184052188263</v>
+        <v>169.5541493453181</v>
       </c>
       <c r="H44">
-        <v>247.7184052188262</v>
+        <v>169.5541493453181</v>
       </c>
       <c r="I44">
-        <v>247.7184052188263</v>
+        <v>169.5541493453181</v>
       </c>
       <c r="J44">
-        <v>258.0175693064594</v>
+        <v>253.9548755942048</v>
       </c>
       <c r="K44">
-        <v>274.2279688310177</v>
+        <v>277.1585958135823</v>
       </c>
       <c r="L44">
-        <v>279.9503435761509</v>
+        <v>279.6574752542752</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2553,19 +2559,19 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D45">
-        <v>111.0982019173613</v>
+        <v>94.60592755206184</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>111.0982019173613</v>
+        <v>94.60592755206184</v>
       </c>
       <c r="G45">
-        <v>20.13613736846666</v>
+        <v>8.683218835433475</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2591,16 +2597,16 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D46">
-        <v>57.89755002249269</v>
+        <v>50.69074599748156</v>
       </c>
       <c r="E46">
-        <v>57.89755002249269</v>
+        <v>50.69074599748156</v>
       </c>
       <c r="F46">
-        <v>34.07953073640967</v>
+        <v>26.49950043807965</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2629,31 +2635,31 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>152.0936874676685</v>
+        <v>159.719491726692</v>
       </c>
       <c r="F47">
-        <v>72.42855227537704</v>
+        <v>103.4745686877164</v>
       </c>
       <c r="G47">
-        <v>255.5532072759807</v>
+        <v>267.6719931655853</v>
       </c>
       <c r="H47">
-        <v>305.5395614782059</v>
+        <v>305.539561478473</v>
       </c>
       <c r="I47">
-        <v>335.7723564344113</v>
+        <v>335.7723564344114</v>
       </c>
       <c r="J47">
-        <v>364.6100373499373</v>
+        <v>364.6100373499374</v>
       </c>
       <c r="K47">
-        <v>369.6585294043118</v>
+        <v>369.6585294043115</v>
       </c>
       <c r="L47">
         <v>373.8591682364948</v>
@@ -2667,34 +2673,34 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D48">
-        <v>347.8902415472072</v>
+        <v>347.72999240261</v>
       </c>
       <c r="E48">
-        <v>378.4583267314707</v>
+        <v>378.4437926398303</v>
       </c>
       <c r="F48">
-        <v>390.9283732853628</v>
+        <v>391.0950238512592</v>
       </c>
       <c r="G48">
-        <v>444.7742252889086</v>
+        <v>443.6061523035254</v>
       </c>
       <c r="H48">
-        <v>468.2836905498607</v>
+        <v>466.3901216870825</v>
       </c>
       <c r="I48">
-        <v>497.4931228446109</v>
+        <v>492.9504142099852</v>
       </c>
       <c r="J48">
-        <v>525.9197307231101</v>
+        <v>524.5733465954182</v>
       </c>
       <c r="K48">
-        <v>526.6103693278941</v>
+        <v>523.8828587322641</v>
       </c>
       <c r="L48">
-        <v>524.3980977692624</v>
+        <v>525.9345952180462</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2705,25 +2711,25 @@
         <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49">
-        <v>272.8450536236366</v>
+        <v>249.0939406475664</v>
       </c>
       <c r="E49">
         <v>206.3757716049383</v>
       </c>
       <c r="F49">
-        <v>165.1006172839506</v>
+        <v>165.1006172839504</v>
       </c>
       <c r="G49">
-        <v>124.9976373697426</v>
+        <v>125.9093285750157</v>
       </c>
       <c r="H49">
         <v>112.2888074806445</v>
       </c>
       <c r="I49">
-        <v>56.14440374032224</v>
+        <v>56.14440374032225</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2743,7 +2749,7 @@
         <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50">
         <v>20.50765536723164</v>
@@ -2752,13 +2758,13 @@
         <v>17.08971280602637</v>
       </c>
       <c r="F50">
-        <v>13.67177024482109</v>
+        <v>13.67177024482114</v>
       </c>
       <c r="G50">
-        <v>10.25382768361582</v>
+        <v>10.25382768361583</v>
       </c>
       <c r="H50">
-        <v>17.76179926364026</v>
+        <v>6.835885122410546</v>
       </c>
       <c r="I50">
         <v>10.2556266007533</v>
@@ -2781,16 +2787,16 @@
         <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51">
-        <v>58.40484306340241</v>
+        <v>58.40484306340238</v>
       </c>
       <c r="E51">
-        <v>48.67070255283535</v>
+        <v>48.67070255283532</v>
       </c>
       <c r="F51">
-        <v>38.93656204226826</v>
+        <v>38.93656204226804</v>
       </c>
       <c r="G51">
         <v>29.2024215317012</v>
@@ -2819,25 +2825,25 @@
         <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52">
         <v>239.7356905210295</v>
       </c>
       <c r="E52">
-        <v>199.7797421008579</v>
+        <v>199.779742100858</v>
       </c>
       <c r="F52">
-        <v>159.8237936806864</v>
+        <v>159.8237936806871</v>
       </c>
       <c r="G52">
         <v>119.8678452605147</v>
       </c>
       <c r="H52">
-        <v>82.66135077820958</v>
+        <v>93.58726491943922</v>
       </c>
       <c r="I52">
-        <v>39.95594842017161</v>
+        <v>39.95594842017159</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2857,22 +2863,22 @@
         <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53">
-        <v>110.0857189682999</v>
+        <v>112.5874426584627</v>
       </c>
       <c r="E53">
-        <v>58.96450617283948</v>
+        <v>58.96450617283952</v>
       </c>
       <c r="F53">
-        <v>47.1716049382716</v>
+        <v>47.17160493827196</v>
       </c>
       <c r="G53">
-        <v>99.32732967357185</v>
+        <v>98.41563846829877</v>
       </c>
       <c r="H53">
-        <v>23.58580246913576</v>
+        <v>23.58580246913581</v>
       </c>
       <c r="I53">
         <v>11.7929012345679</v>
@@ -2895,7 +2901,7 @@
         <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D54">
         <v>172.9359008160703</v>
@@ -2904,16 +2910,16 @@
         <v>144.1132506800586</v>
       </c>
       <c r="F54">
-        <v>115.2906005440469</v>
+        <v>115.2906005440465</v>
       </c>
       <c r="G54">
         <v>86.46795040803515</v>
       </c>
       <c r="H54">
-        <v>57.64530027202346</v>
+        <v>57.64530027202345</v>
       </c>
       <c r="I54">
-        <v>28.82265013601173</v>
+        <v>28.82265013601171</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2933,25 +2939,25 @@
         <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D55">
-        <v>75.31338622790031</v>
+        <v>96.56277551380767</v>
       </c>
       <c r="E55">
-        <v>116.5298545720864</v>
+        <v>116.5298545720862</v>
       </c>
       <c r="F55">
-        <v>93.22388365766896</v>
+        <v>93.22388365767021</v>
       </c>
       <c r="G55">
-        <v>4.797112366603894</v>
+        <v>4.797112366603892</v>
       </c>
       <c r="H55">
-        <v>3.198074911069253</v>
+        <v>3.19807491106926</v>
       </c>
       <c r="I55">
-        <v>1.599037455534633</v>
+        <v>1.599037455534631</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -2971,22 +2977,22 @@
         <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D56">
-        <v>4.032041728763039</v>
+        <v>4.13587984351714</v>
       </c>
       <c r="E56">
-        <v>3.225633383010456</v>
+        <v>3.225633383010438</v>
       </c>
       <c r="F56">
-        <v>2.617958271237005</v>
+        <v>2.617958271236962</v>
       </c>
       <c r="G56">
-        <v>1.616393889716838</v>
+        <v>1.616393889716816</v>
       </c>
       <c r="H56">
-        <v>0.8064083457524972</v>
+        <v>0.8091906110283344</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -3009,22 +3015,22 @@
         <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D57">
-        <v>0.2643031567538268</v>
+        <v>0.2273839418777943</v>
       </c>
       <c r="E57">
-        <v>0.2649776453055157</v>
+        <v>0.2649776453055146</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0.1289116244411325</v>
+        <v>0.1073241691557164</v>
       </c>
       <c r="H57">
-        <v>0.06624441132636942</v>
+        <v>0.06346214605067442</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -3047,22 +3053,22 @@
         <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D58">
         <v>0.1152757078986587</v>
       </c>
       <c r="E58">
-        <v>0.09222056631892848</v>
+        <v>0.09222056631892714</v>
       </c>
       <c r="F58">
-        <v>0.06916542473919644</v>
+        <v>0.06916542473919531</v>
       </c>
       <c r="G58">
-        <v>0.04611028315946342</v>
+        <v>0.04611028315946279</v>
       </c>
       <c r="H58">
-        <v>0.02305514157972858</v>
+        <v>0.02305514157973234</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -3085,25 +3091,25 @@
         <v>46</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D59">
-        <v>112.2141422144653</v>
+        <v>125.2726579917263</v>
       </c>
       <c r="E59">
-        <v>72.33314538864278</v>
+        <v>72.33314538864276</v>
       </c>
       <c r="F59">
         <v>106.9374788562223</v>
       </c>
       <c r="G59">
-        <v>44.06234522754732</v>
+        <v>43.87869444965083</v>
       </c>
       <c r="H59">
-        <v>28.93325815545711</v>
+        <v>29.96374836890858</v>
       </c>
       <c r="I59">
-        <v>14.46662907772856</v>
+        <v>14.98187418445429</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3123,10 +3129,10 @@
         <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D60">
-        <v>23.46031094703287</v>
+        <v>10.40179516977189</v>
       </c>
       <c r="E60">
         <v>61.33870318163513</v>
@@ -3135,13 +3141,13 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>36.14076391461941</v>
+        <v>31.98680017425201</v>
       </c>
       <c r="H60">
-        <v>24.53548127265405</v>
+        <v>23.50499105920258</v>
       </c>
       <c r="I60">
-        <v>12.26774063632703</v>
+        <v>11.75249552960129</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -3161,22 +3167,22 @@
         <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D61">
         <v>13.63408779701973</v>
       </c>
       <c r="E61">
-        <v>11.36173983084976</v>
+        <v>11.36173983084978</v>
       </c>
       <c r="F61">
-        <v>9.089391864679822</v>
+        <v>9.089391864679827</v>
       </c>
       <c r="G61">
-        <v>6.817043898509865</v>
+        <v>6.817043898509867</v>
       </c>
       <c r="H61">
-        <v>4.544695932339911</v>
+        <v>4.544695932339912</v>
       </c>
       <c r="I61">
         <v>2.272347966169956</v>
@@ -3199,22 +3205,22 @@
         <v>47</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D62">
-        <v>132.1753033383933</v>
+        <v>85.76433502742641</v>
       </c>
       <c r="E62">
-        <v>50.45037931266093</v>
+        <v>50.45037931266092</v>
       </c>
       <c r="F62">
-        <v>5.754039154173993</v>
+        <v>5.218750699652972</v>
       </c>
       <c r="G62">
-        <v>3.479167133101982</v>
+        <v>3.479167133101984</v>
       </c>
       <c r="H62">
-        <v>1.739583566550991</v>
+        <v>1.739583566550992</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -3237,22 +3243,22 @@
         <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D63">
-        <v>16.96791671331125</v>
+        <v>16.9679167133102</v>
       </c>
       <c r="E63">
-        <v>7.144385984551663</v>
+        <v>7.144385984551664</v>
       </c>
       <c r="F63">
         <v>5.358289488413747</v>
       </c>
       <c r="G63">
-        <v>33.24387768951595</v>
+        <v>16.15449860069407</v>
       </c>
       <c r="H63">
-        <v>25.5262957203397</v>
+        <v>25.52629575730428</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -3275,10 +3281,10 @@
         <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D64">
-        <v>88.06479271204542</v>
+        <v>67.77876601724412</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3287,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>24.37759179277937</v>
+        <v>22.60414801973097</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3313,34 +3319,34 @@
         <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D65">
-        <v>146.5638161390585</v>
+        <v>219.5953443282632</v>
       </c>
       <c r="E65">
-        <v>238.4974631010658</v>
+        <v>238.5190190623625</v>
       </c>
       <c r="F65">
-        <v>293.1702942865078</v>
+        <v>293.1918502478064</v>
       </c>
       <c r="G65">
-        <v>342.480512028</v>
+        <v>367.3981006346623</v>
       </c>
       <c r="H65">
-        <v>403.421202691134</v>
+        <v>403.3630340920551</v>
       </c>
       <c r="I65">
-        <v>436.7925281899592</v>
+        <v>436.7925281898141</v>
       </c>
       <c r="J65">
-        <v>466.3701117976796</v>
+        <v>466.3701118021361</v>
       </c>
       <c r="K65">
-        <v>485.9466826990262</v>
+        <v>485.946682699026</v>
       </c>
       <c r="L65">
-        <v>510.3546083125073</v>
+        <v>510.3546076714947</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3351,7 +3357,7 @@
         <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D66">
         <v>141.3161627906977</v>
@@ -3389,10 +3395,10 @@
         <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D67">
-        <v>10.305</v>
+        <v>4.97009076965414</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3427,7 +3433,7 @@
         <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3465,10 +3471,10 @@
         <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>5.334909230345859</v>
       </c>
       <c r="E69">
         <v>8.244</v>
@@ -3503,34 +3509,34 @@
         <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D70">
-        <v>29.35935945927674</v>
+        <v>29.35935945927679</v>
       </c>
       <c r="E70">
-        <v>34.58351967399661</v>
+        <v>34.58351967399671</v>
       </c>
       <c r="F70">
-        <v>18.460738406874</v>
+        <v>18.46073840687312</v>
       </c>
       <c r="G70">
-        <v>56.80354143023332</v>
+        <v>56.80354143023319</v>
       </c>
       <c r="H70">
-        <v>62.69333932494784</v>
+        <v>62.69333932494796</v>
       </c>
       <c r="I70">
-        <v>115.9653481430301</v>
+        <v>115.9653479112129</v>
       </c>
       <c r="J70">
-        <v>164.6861259769552</v>
+        <v>164.6861259549364</v>
       </c>
       <c r="K70">
-        <v>104.921675390046</v>
+        <v>104.9216753900467</v>
       </c>
       <c r="L70">
-        <v>53.74813973438229</v>
+        <v>53.74814003587282</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3541,34 +3547,34 @@
         <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D71">
-        <v>47.30119023994583</v>
+        <v>47.30119023994594</v>
       </c>
       <c r="E71">
-        <v>55.71789280810562</v>
+        <v>55.71789280810581</v>
       </c>
       <c r="F71">
-        <v>29.74230076663034</v>
+        <v>29.7423007666289</v>
       </c>
       <c r="G71">
-        <v>91.51681674870925</v>
+        <v>91.51681674870905</v>
       </c>
       <c r="H71">
-        <v>101.0059355790827</v>
+        <v>101.0059355790828</v>
       </c>
       <c r="I71">
-        <v>186.833060897104</v>
+        <v>186.8330605236208</v>
       </c>
       <c r="J71">
-        <v>265.3276474073167</v>
+        <v>265.3276473718419</v>
       </c>
       <c r="K71">
-        <v>169.0404770172962</v>
+        <v>169.0404770172975</v>
       </c>
       <c r="L71">
-        <v>86.59422512761589</v>
+        <v>86.59422561335067</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3579,34 +3585,34 @@
         <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D72">
-        <v>0.8155377627576864</v>
+        <v>0.8155377627576886</v>
       </c>
       <c r="E72">
-        <v>0.9606533242776838</v>
+        <v>0.9606533242776863</v>
       </c>
       <c r="F72">
-        <v>0.512798289079833</v>
+        <v>0.5127982890798087</v>
       </c>
       <c r="G72">
-        <v>1.577876150839814</v>
+        <v>1.577876150839811</v>
       </c>
       <c r="H72">
-        <v>1.741481647915213</v>
+        <v>1.741481647915221</v>
       </c>
       <c r="I72">
-        <v>3.221259670639745</v>
+        <v>3.221259664200381</v>
       </c>
       <c r="J72">
-        <v>4.574614610471007</v>
+        <v>4.574614610471023</v>
       </c>
       <c r="K72">
-        <v>2.91449098305683</v>
+        <v>2.914490983056864</v>
       </c>
       <c r="L72">
-        <v>1.493003881510619</v>
+        <v>1.493003889885356</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3617,25 +3623,25 @@
         <v>53</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D73">
-        <v>0.1565844765469594</v>
+        <v>0.1527768315433518</v>
       </c>
       <c r="E73">
-        <v>6.479977773917932</v>
+        <v>6.482441312351932</v>
       </c>
       <c r="F73">
-        <v>11.94989087266859</v>
+        <v>11.95235441110258</v>
       </c>
       <c r="G73">
-        <v>18.64496679295641</v>
+        <v>16.35839041140601</v>
       </c>
       <c r="H73">
-        <v>23.14144961900497</v>
+        <v>23.13506353780608</v>
       </c>
       <c r="I73">
-        <v>25.3652981818378</v>
+        <v>25.3652981925092</v>
       </c>
       <c r="J73">
         <v>26.78443802433191</v>
@@ -3644,7 +3650,7 @@
         <v>28.40346910146811</v>
       </c>
       <c r="L73">
-        <v>30.17064905290618</v>
+        <v>30.17064905290617</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3655,34 +3661,34 @@
         <v>53</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D74">
-        <v>0.4567330901258656</v>
+        <v>0.4567330901257882</v>
       </c>
       <c r="E74">
-        <v>17.8199388782743</v>
+        <v>17.8267136089678</v>
       </c>
       <c r="F74">
-        <v>32.86219989983859</v>
+        <v>32.86897463053207</v>
       </c>
       <c r="G74">
-        <v>51.2736586806301</v>
+        <v>51.89713068529265</v>
       </c>
       <c r="H74">
-        <v>67.19602449552316</v>
+        <v>67.17748117711676</v>
       </c>
       <c r="I74">
-        <v>69.75456999978587</v>
+        <v>69.7545700294002</v>
       </c>
       <c r="J74">
-        <v>73.65720456691263</v>
+        <v>73.65720456691267</v>
       </c>
       <c r="K74">
-        <v>78.10954002903721</v>
+        <v>78.10954002903723</v>
       </c>
       <c r="L74">
-        <v>82.96928489549187</v>
+        <v>82.96928489549188</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3693,16 +3699,16 @@
         <v>54</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D75">
-        <v>10.76451646711455</v>
+        <v>10.7645164671141</v>
       </c>
       <c r="E75">
-        <v>59.34255900656308</v>
+        <v>59.34255900656306</v>
       </c>
       <c r="F75">
-        <v>95.41417378940217</v>
+        <v>95.41417378940304</v>
       </c>
       <c r="G75">
         <v>145.5707316708524</v>
@@ -3714,13 +3720,13 @@
         <v>200.5968771198633</v>
       </c>
       <c r="J75">
-        <v>232.36554295848</v>
+        <v>232.3655429584808</v>
       </c>
       <c r="K75">
-        <v>237.464422503773</v>
+        <v>237.4644225037732</v>
       </c>
       <c r="L75">
-        <v>247.9004987392643</v>
+        <v>247.9004987392644</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3731,31 +3737,31 @@
         <v>54</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D76">
-        <v>1.477482652349056</v>
+        <v>1.477482652348993</v>
       </c>
       <c r="E76">
-        <v>8.145057118547875</v>
+        <v>8.14505711854787</v>
       </c>
       <c r="F76">
-        <v>13.09606306913363</v>
+        <v>13.09606306913375</v>
       </c>
       <c r="G76">
         <v>19.98029650384249</v>
       </c>
       <c r="H76">
-        <v>22.50844250076497</v>
+        <v>22.50844250076495</v>
       </c>
       <c r="I76">
         <v>27.53290470272633</v>
       </c>
       <c r="J76">
-        <v>31.89330981783059</v>
+        <v>31.89330981783071</v>
       </c>
       <c r="K76">
-        <v>32.59315602992962</v>
+        <v>32.5931560299296</v>
       </c>
       <c r="L76">
         <v>34.02555865048726</v>
@@ -3769,7 +3775,7 @@
         <v>55</v>
       </c>
       <c r="C77" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3787,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2.278350398736467E-07</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>2.114268765869563E-08</v>
       </c>
       <c r="K77">
         <v>0</v>
       </c>
       <c r="L77">
-        <v>6.854875967531421E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3807,7 +3813,7 @@
         <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3822,19 +3828,19 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>3.696466229980362E-08</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>3.684141070297266E-07</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>3.394741398720144E-08</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78">
-        <v>2.422307688600816E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3845,7 +3851,7 @@
         <v>55</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3863,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>5.009139174526984E-08</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -3872,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>6.838661340320945E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3883,7 +3889,7 @@
         <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3895,22 +3901,22 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0.003483606557373335</v>
+        <v>0.001818442622948549</v>
       </c>
       <c r="H80">
-        <v>0.003483606557374391</v>
+        <v>0.003132923497264733</v>
       </c>
       <c r="I80">
-        <v>0.02541235348613947</v>
+        <v>0.02541235348611797</v>
       </c>
       <c r="J80">
-        <v>0.1475868006605358</v>
+        <v>0.147586800660571</v>
       </c>
       <c r="K80">
-        <v>0.915092943166712</v>
+        <v>0.9150929431667035</v>
       </c>
       <c r="L80">
-        <v>1.059206494545515</v>
+        <v>1.059206494545517</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3921,7 +3927,7 @@
         <v>56</v>
       </c>
       <c r="C81" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3933,22 +3939,22 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.1068306010927824</v>
+        <v>0.1068306010926852</v>
       </c>
       <c r="H81">
-        <v>0.1068306010928148</v>
+        <v>0.1071812841529129</v>
       </c>
       <c r="I81">
         <v>0.7793121735744686</v>
       </c>
       <c r="J81">
-        <v>4.525995220257515</v>
+        <v>4.525995220257514</v>
       </c>
       <c r="K81">
-        <v>28.06285025711255</v>
+        <v>28.06285025711225</v>
       </c>
       <c r="L81">
-        <v>36.2367968345219</v>
+        <v>36.236796834522</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3959,7 +3965,7 @@
         <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3986,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>4.649797090906539E-08</v>
+        <v>6.410077416457418E-07</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3994,10 +4000,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C83" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -4015,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>2.608493144223045E-08</v>
+        <v>7.918909090908669E-08</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -4032,37 +4038,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C84" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>231.2145201384537</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>195.5597358200015</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>197.3640636909188</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>133.4334346111227</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>101.8111295163481</v>
       </c>
       <c r="I84">
-        <v>1.108647272727284E-07</v>
+        <v>77.82505563101661</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>25.8452802810001</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>16.41966751017946</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>8.38766230272673</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4070,37 +4076,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D85">
-        <v>231.2145201384542</v>
+        <v>13.75147133829522</v>
       </c>
       <c r="E85">
-        <v>195.5597358200016</v>
+        <v>26.13510906405203</v>
       </c>
       <c r="F85">
-        <v>196.7523054571805</v>
+        <v>28.37107194821481</v>
       </c>
       <c r="G85">
-        <v>133.4334346111227</v>
+        <v>35.60693766099194</v>
       </c>
       <c r="H85">
-        <v>101.8111295163481</v>
+        <v>39.56183928648738</v>
       </c>
       <c r="I85">
-        <v>77.82505563131608</v>
+        <v>44.0260465052094</v>
       </c>
       <c r="J85">
-        <v>25.84528028514678</v>
+        <v>43.76714569141541</v>
       </c>
       <c r="K85">
-        <v>16.41966751017874</v>
+        <v>43.69325672435192</v>
       </c>
       <c r="L85">
-        <v>8.387662263361525</v>
+        <v>43.59889045743303</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4108,37 +4114,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C86" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D86">
-        <v>6.820689863439509</v>
+        <v>35.82778702163066</v>
       </c>
       <c r="E86">
-        <v>26.13510906405203</v>
+        <v>28.66222961730448</v>
       </c>
       <c r="F86">
-        <v>28.37107194821481</v>
+        <v>21.49667221297837</v>
       </c>
       <c r="G86">
-        <v>35.60693766099523</v>
+        <v>12.91025890898339</v>
       </c>
       <c r="H86">
-        <v>39.56183928648738</v>
+        <v>11.43479797404034</v>
       </c>
       <c r="I86">
-        <v>44.02604650520912</v>
+        <v>11.34546589018302</v>
       </c>
       <c r="J86">
-        <v>43.7671456914154</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>43.69325672435208</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>43.59889045743302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4149,25 +4155,25 @@
         <v>61</v>
       </c>
       <c r="C87" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D87">
-        <v>35.82778702163064</v>
+        <v>7.412645590682195</v>
       </c>
       <c r="E87">
-        <v>28.6622296173045</v>
+        <v>5.930116472545739</v>
       </c>
       <c r="F87">
-        <v>21.49667221297838</v>
+        <v>4.447587354409318</v>
       </c>
       <c r="G87">
-        <v>17.5498832043993</v>
+        <v>3.631010318151569</v>
       </c>
       <c r="H87">
-        <v>11.43479797404035</v>
+        <v>2.365820270491107</v>
       </c>
       <c r="I87">
-        <v>11.34546589018302</v>
+        <v>2.347337770382694</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -4187,25 +4193,25 @@
         <v>61</v>
       </c>
       <c r="C88" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D88">
-        <v>7.412645590682193</v>
+        <v>5.147670549084857</v>
       </c>
       <c r="E88">
-        <v>5.930116472545757</v>
+        <v>4.118136439267886</v>
       </c>
       <c r="F88">
-        <v>4.447587354409317</v>
+        <v>3.088602329450916</v>
       </c>
       <c r="G88">
-        <v>3.631010318151579</v>
+        <v>2.521534943160819</v>
       </c>
       <c r="H88">
-        <v>2.365820270491108</v>
+        <v>1.642930743396602</v>
       </c>
       <c r="I88">
-        <v>2.347337770382695</v>
+        <v>1.630095673876871</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -4225,25 +4231,25 @@
         <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D89">
-        <v>5.147670549084857</v>
+        <v>4.324043261231282</v>
       </c>
       <c r="E89">
-        <v>4.118136439267887</v>
+        <v>3.459234608985025</v>
       </c>
       <c r="F89">
-        <v>3.088602329450916</v>
+        <v>2.594425956738768</v>
       </c>
       <c r="G89">
-        <v>2.521534943160818</v>
+        <v>6.757713647671006</v>
       </c>
       <c r="H89">
-        <v>1.642930743396602</v>
+        <v>1.380061824453146</v>
       </c>
       <c r="I89">
-        <v>1.630095673876872</v>
+        <v>1.369280366056572</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -4260,28 +4266,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C90" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D90">
-        <v>4.324043261231282</v>
+        <v>8.532204637467791</v>
       </c>
       <c r="E90">
-        <v>3.459234608985026</v>
+        <v>6.825763709974235</v>
       </c>
       <c r="F90">
-        <v>2.594425956738764</v>
+        <v>5.119322782480675</v>
       </c>
       <c r="G90">
-        <v>2.118089352255088</v>
+        <v>1.579094589620905</v>
       </c>
       <c r="H90">
-        <v>1.380061824453146</v>
+        <v>1.706440927493558</v>
       </c>
       <c r="I90">
-        <v>1.369280366056579</v>
+        <v>0</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -4301,22 +4307,22 @@
         <v>62</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D91">
-        <v>8.532204637467791</v>
+        <v>1.11428045638572</v>
       </c>
       <c r="E91">
-        <v>6.825763709974227</v>
+        <v>0.8914243651085758</v>
       </c>
       <c r="F91">
-        <v>5.119322782480675</v>
+        <v>0.6685682738314317</v>
       </c>
       <c r="G91">
-        <v>3.412881854987114</v>
+        <v>0.4457121825542884</v>
       </c>
       <c r="H91">
-        <v>1.706440927493558</v>
+        <v>0.2228560912771439</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -4339,22 +4345,22 @@
         <v>62</v>
       </c>
       <c r="C92" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D92">
-        <v>1.11428045638572</v>
+        <v>0.764078027235922</v>
       </c>
       <c r="E92">
-        <v>0.8914243651085781</v>
+        <v>0.6112624217887376</v>
       </c>
       <c r="F92">
-        <v>0.6685682738314317</v>
+        <v>0.458446816341553</v>
       </c>
       <c r="G92">
-        <v>0.4457121825542891</v>
+        <v>0.3056312108943688</v>
       </c>
       <c r="H92">
-        <v>0.2228560912771439</v>
+        <v>0.1528156054471835</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -4377,22 +4383,22 @@
         <v>62</v>
       </c>
       <c r="C93" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D93">
-        <v>0.764078027235922</v>
+        <v>1.3052999631947</v>
       </c>
       <c r="E93">
-        <v>0.6112624217887376</v>
+        <v>1.04423997055576</v>
       </c>
       <c r="F93">
-        <v>0.458446816341553</v>
+        <v>0.7831799779168197</v>
       </c>
       <c r="G93">
-        <v>0.3056312108943688</v>
+        <v>2.355907250644091</v>
       </c>
       <c r="H93">
-        <v>0.1528156054471843</v>
+        <v>0.2610599926389399</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -4412,28 +4418,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C94" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D94">
-        <v>1.3052999631947</v>
+        <v>2.557763776565735</v>
       </c>
       <c r="E94">
-        <v>1.04423997055576</v>
+        <v>1.844659593437046</v>
       </c>
       <c r="F94">
-        <v>0.7831799779168197</v>
+        <v>1.705175851043819</v>
       </c>
       <c r="G94">
-        <v>0.5221199852778799</v>
+        <v>1.278881888282866</v>
       </c>
       <c r="H94">
-        <v>0.2610599926389399</v>
+        <v>0.8525879255219094</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>0.4262939627609566</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -4453,25 +4459,25 @@
         <v>63</v>
       </c>
       <c r="C95" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D95">
-        <v>2.557763776565732</v>
+        <v>1.459733872484484</v>
       </c>
       <c r="E95">
-        <v>1.844659593437041</v>
+        <v>1.052760273022152</v>
       </c>
       <c r="F95">
-        <v>1.705175851043819</v>
+        <v>0.9731559149896561</v>
       </c>
       <c r="G95">
-        <v>1.278881888282866</v>
+        <v>0.7298669362422421</v>
       </c>
       <c r="H95">
-        <v>0.8525879255219104</v>
+        <v>0.4865779574948281</v>
       </c>
       <c r="I95">
-        <v>0.4262939627609566</v>
+        <v>0.2432889787474141</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -4488,28 +4494,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C96" t="s">
         <v>145</v>
       </c>
       <c r="D96">
-        <v>1.459733872484484</v>
+        <v>57.5176547515257</v>
       </c>
       <c r="E96">
-        <v>1.052760273022156</v>
+        <v>47.93137895960476</v>
       </c>
       <c r="F96">
-        <v>0.9731559149896561</v>
+        <v>38.34510316768381</v>
       </c>
       <c r="G96">
-        <v>0.7298669362422421</v>
+        <v>28.75882737576286</v>
       </c>
       <c r="H96">
-        <v>0.4865779574948281</v>
+        <v>19.1725515838419</v>
       </c>
       <c r="I96">
-        <v>0.2432889787474141</v>
+        <v>9.586275791920958</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -4529,25 +4535,25 @@
         <v>64</v>
       </c>
       <c r="C97" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D97">
-        <v>57.51765475152572</v>
+        <v>3.544692676547514</v>
       </c>
       <c r="E97">
-        <v>47.93137895960476</v>
+        <v>2.953910563789595</v>
       </c>
       <c r="F97">
-        <v>38.34510316768381</v>
+        <v>2.363128451031677</v>
       </c>
       <c r="G97">
-        <v>28.75882737576286</v>
+        <v>1.772346338273757</v>
       </c>
       <c r="H97">
-        <v>19.17255158384191</v>
+        <v>1.181564225515838</v>
       </c>
       <c r="I97">
-        <v>9.586275791920958</v>
+        <v>0.5907821127579195</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -4564,28 +4570,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C98" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="D98">
-        <v>3.544692676547514</v>
+        <v>188.0662112145743</v>
       </c>
       <c r="E98">
-        <v>2.953910563789596</v>
+        <v>161.0673152741832</v>
       </c>
       <c r="F98">
-        <v>2.363128451031677</v>
+        <v>131.5194968547042</v>
       </c>
       <c r="G98">
-        <v>1.772346338273752</v>
+        <v>81.09875000000002</v>
       </c>
       <c r="H98">
-        <v>1.181564225515837</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0.5907821127579195</v>
+        <v>0</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -4602,25 +4608,25 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C99" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D99">
-        <v>188.0662112145743</v>
+        <v>24.43651162790697</v>
       </c>
       <c r="E99">
-        <v>161.0673152741832</v>
+        <v>19.54920930232558</v>
       </c>
       <c r="F99">
-        <v>131.5194968547042</v>
+        <v>14.66190697674418</v>
       </c>
       <c r="G99">
-        <v>81.09875000000002</v>
+        <v>9.77460465116279</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>4.887302325581397</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -4640,25 +4646,25 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C100" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D100">
-        <v>24.43651162790697</v>
+        <v>3.002</v>
       </c>
       <c r="E100">
-        <v>19.54920930232558</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>14.66190697674418</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>9.77460465116279</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>4.887302325581397</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -4681,22 +4687,22 @@
         <v>67</v>
       </c>
       <c r="C101" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D101">
-        <v>3.002</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>2.4016</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1.801199999999999</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1.2008</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>0.6003999999999998</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -4719,22 +4725,22 @@
         <v>67</v>
       </c>
       <c r="C102" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>2.4016</v>
       </c>
       <c r="F102">
-        <v>1.801199999999999</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>1.2008</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>0.6003999999999998</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -4757,22 +4763,22 @@
         <v>68</v>
       </c>
       <c r="C103" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D103">
-        <v>0.6294065294117664</v>
+        <v>0.6294065294117662</v>
       </c>
       <c r="E103">
         <v>4.108034180036881</v>
       </c>
       <c r="F103">
-        <v>6.349477084458857</v>
+        <v>6.349477084458856</v>
       </c>
       <c r="G103">
         <v>11.07206210149305</v>
       </c>
       <c r="H103">
-        <v>16.04112843105537</v>
+        <v>16.04112843105536</v>
       </c>
       <c r="I103">
         <v>18.82048235741507</v>
@@ -4781,10 +4787,10 @@
         <v>26.16501903583315</v>
       </c>
       <c r="K103">
-        <v>26.16501903583316</v>
+        <v>26.16501903583314</v>
       </c>
       <c r="L103">
-        <v>23.79629868110883</v>
+        <v>23.79629868110882</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4795,34 +4801,34 @@
         <v>68</v>
       </c>
       <c r="C104" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D104">
         <v>0.1864908235294122</v>
       </c>
       <c r="E104">
-        <v>1.217195312603521</v>
+        <v>1.21719531260352</v>
       </c>
       <c r="F104">
-        <v>1.881326543543364</v>
+        <v>1.881326543543365</v>
       </c>
       <c r="G104">
-        <v>3.280610993034979</v>
+        <v>3.280610993034978</v>
       </c>
       <c r="H104">
         <v>4.752926942534925</v>
       </c>
       <c r="I104">
-        <v>5.576439217011876</v>
+        <v>5.576439217011875</v>
       </c>
       <c r="J104">
-        <v>7.752598232839451</v>
+        <v>7.752598232839452</v>
       </c>
       <c r="K104">
-        <v>7.75259823283945</v>
+        <v>7.752598232839448</v>
       </c>
       <c r="L104">
-        <v>7.050755164772982</v>
+        <v>7.050755164772984</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4833,13 +4839,13 @@
         <v>68</v>
       </c>
       <c r="C105" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D105">
         <v>1.352058470588238</v>
       </c>
       <c r="E105">
-        <v>8.82466601637552</v>
+        <v>8.824666016375522</v>
       </c>
       <c r="F105">
         <v>13.63961744068939</v>
@@ -4848,19 +4854,19 @@
         <v>23.78442969950358</v>
       </c>
       <c r="H105">
-        <v>34.45872033337818</v>
+        <v>34.45872033337821</v>
       </c>
       <c r="I105">
-        <v>40.4291843233361</v>
+        <v>40.42918432333607</v>
       </c>
       <c r="J105">
         <v>56.206337188086</v>
       </c>
       <c r="K105">
-        <v>56.20633718808601</v>
+        <v>56.20633718808602</v>
       </c>
       <c r="L105">
-        <v>51.11797494460413</v>
+        <v>51.11797494460414</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4871,13 +4877,13 @@
         <v>69</v>
       </c>
       <c r="C106" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D106">
-        <v>9.608734034482762</v>
+        <v>9.608734034482756</v>
       </c>
       <c r="E106">
-        <v>11.23139123480009</v>
+        <v>11.23139123480008</v>
       </c>
       <c r="F106">
         <v>12.00476062234037</v>
@@ -4886,16 +4892,16 @@
         <v>13.28433017214931</v>
       </c>
       <c r="H106">
-        <v>12.11725813766654</v>
+        <v>12.11725813766655</v>
       </c>
       <c r="I106">
-        <v>11.93340044229373</v>
+        <v>11.93340044229372</v>
       </c>
       <c r="J106">
         <v>11.82447221734014</v>
       </c>
       <c r="K106">
-        <v>11.77236</v>
+        <v>11.77235999999999</v>
       </c>
       <c r="L106">
         <v>11.74692</v>
@@ -4909,34 +4915,34 @@
         <v>69</v>
       </c>
       <c r="C107" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D107">
-        <v>0.3351883965517242</v>
+        <v>0.3351883965517239</v>
       </c>
       <c r="E107">
-        <v>0.3917927174930262</v>
+        <v>0.3917927174930259</v>
       </c>
       <c r="F107">
-        <v>0.4187707193839661</v>
+        <v>0.4187707193839663</v>
       </c>
       <c r="G107">
-        <v>0.4634068664703246</v>
+        <v>0.4634068664703245</v>
       </c>
       <c r="H107">
-        <v>0.4226950513139492</v>
+        <v>0.4226950513139494</v>
       </c>
       <c r="I107">
-        <v>0.416281410777688</v>
+        <v>0.4162814107776882</v>
       </c>
       <c r="J107">
-        <v>0.4124815889769818</v>
+        <v>0.4124815889769819</v>
       </c>
       <c r="K107">
         <v>0.4106637209302326</v>
       </c>
       <c r="L107">
-        <v>0.4097762790697675</v>
+        <v>0.4097762790697672</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -4947,7 +4953,7 @@
         <v>70</v>
       </c>
       <c r="C108" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -4962,16 +4968,16 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>0.853030432092084</v>
+        <v>0.8530304320920844</v>
       </c>
       <c r="I108">
-        <v>0.853030432092084</v>
+        <v>0.8530304320920844</v>
       </c>
       <c r="J108">
-        <v>2.498865581040681</v>
+        <v>2.498865581040682</v>
       </c>
       <c r="K108">
-        <v>2.494625952946142</v>
+        <v>2.494625952946141</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -4985,7 +4991,7 @@
         <v>71</v>
       </c>
       <c r="C109" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -5012,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <v>1.866140771405823</v>
+        <v>1.86614077140582</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5023,34 +5029,34 @@
         <v>72</v>
       </c>
       <c r="C110" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D110">
         <v>2.688552039151713</v>
       </c>
       <c r="E110">
-        <v>3.1901439454833</v>
+        <v>3.190143945483301</v>
       </c>
       <c r="F110">
-        <v>4.818647158180913</v>
+        <v>4.818647158180914</v>
       </c>
       <c r="G110">
         <v>4.248652783080192</v>
       </c>
       <c r="H110">
-        <v>4.676039174874454</v>
+        <v>4.676039174874456</v>
       </c>
       <c r="I110">
-        <v>5.159189959821125</v>
+        <v>5.159189959821124</v>
       </c>
       <c r="J110">
-        <v>4.862382234279729</v>
+        <v>4.862382234279728</v>
       </c>
       <c r="K110">
-        <v>4.816727903715984</v>
+        <v>4.816727903715983</v>
       </c>
       <c r="L110">
-        <v>4.783757067595737</v>
+        <v>4.783757067595736</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5061,19 +5067,19 @@
         <v>72</v>
       </c>
       <c r="C111" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D111">
-        <v>0.4032828058727569</v>
+        <v>0.4032828058727568</v>
       </c>
       <c r="E111">
-        <v>0.478521591822495</v>
+        <v>0.4785215918224952</v>
       </c>
       <c r="F111">
-        <v>0.5162836240908123</v>
+        <v>0.5162836240908121</v>
       </c>
       <c r="G111">
-        <v>0.6372979174620287</v>
+        <v>0.6372979174620284</v>
       </c>
       <c r="H111">
         <v>0.7014058762311681</v>
@@ -5085,10 +5091,10 @@
         <v>0.7293573351419592</v>
       </c>
       <c r="K111">
-        <v>0.722509185557398</v>
+        <v>0.7225091855573975</v>
       </c>
       <c r="L111">
-        <v>0.7175635601393605</v>
+        <v>0.7175635601393606</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5099,7 +5105,7 @@
         <v>72</v>
       </c>
       <c r="C112" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D112">
         <v>1.075420815660684</v>
@@ -5111,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>1.699461113232075</v>
+        <v>1.699461113232074</v>
       </c>
       <c r="H112">
         <v>1.87041566994978</v>
@@ -5126,7 +5132,7 @@
         <v>1.926691161486392</v>
       </c>
       <c r="L112">
-        <v>1.913502827038292</v>
+        <v>1.913502827038293</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5137,19 +5143,19 @@
         <v>72</v>
       </c>
       <c r="C113" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D113">
         <v>0.2688552039151713</v>
       </c>
       <c r="E113">
-        <v>0.3190143945483301</v>
+        <v>0.3190143945483303</v>
       </c>
       <c r="F113">
-        <v>0.3441890827272078</v>
+        <v>0.3441890827272083</v>
       </c>
       <c r="G113">
-        <v>0.4248652783080191</v>
+        <v>0.4248652783080193</v>
       </c>
       <c r="H113">
         <v>0.4676039174874456</v>
@@ -5158,13 +5164,13 @@
         <v>0.5159189959821125</v>
       </c>
       <c r="J113">
-        <v>0.4862382234279726</v>
+        <v>0.4862382234279728</v>
       </c>
       <c r="K113">
-        <v>0.4816727903715985</v>
+        <v>0.4816727903715983</v>
       </c>
       <c r="L113">
-        <v>0.4783757067595736</v>
+        <v>0.4783757067595735</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5175,7 +5181,7 @@
         <v>73</v>
       </c>
       <c r="C114" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -5187,22 +5193,22 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>36.46535745018768</v>
+        <v>36.46535745018767</v>
       </c>
       <c r="H114">
         <v>105.9092399979569</v>
       </c>
       <c r="I114">
-        <v>103.6342218785842</v>
+        <v>103.6342218785843</v>
       </c>
       <c r="J114">
-        <v>93.31813941816796</v>
+        <v>93.31813941816795</v>
       </c>
       <c r="K114">
-        <v>92.07369709096957</v>
+        <v>92.07369709096956</v>
       </c>
       <c r="L114">
-        <v>89.59326325005279</v>
+        <v>89.5932632500528</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5213,7 +5219,7 @@
         <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D115">
         <v>15.76190135173043</v>
@@ -5228,19 +5234,19 @@
         <v>10.85688951679112</v>
       </c>
       <c r="H115">
-        <v>9.18206536839168</v>
+        <v>9.182065368391676</v>
       </c>
       <c r="I115">
         <v>12.53069030491284</v>
       </c>
       <c r="J115">
-        <v>2.467874812053263</v>
+        <v>2.467874812053261</v>
       </c>
       <c r="K115">
         <v>2.337286313827053</v>
       </c>
       <c r="L115">
-        <v>2.277340498509768</v>
+        <v>2.277340498509769</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5251,13 +5257,13 @@
         <v>75</v>
       </c>
       <c r="C116" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D116">
-        <v>53.23795952782462</v>
+        <v>46.92589376053964</v>
       </c>
       <c r="E116">
-        <v>37.54071500843172</v>
+        <v>37.5407150084317</v>
       </c>
       <c r="F116">
         <v>28.15553625632379</v>
@@ -5289,22 +5295,22 @@
         <v>75</v>
       </c>
       <c r="C117" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D117">
-        <v>9.138111298482292</v>
+        <v>9.138111298482293</v>
       </c>
       <c r="E117">
-        <v>7.310489038785851</v>
+        <v>7.310489038785834</v>
       </c>
       <c r="F117">
         <v>5.482866779089378</v>
       </c>
       <c r="G117">
-        <v>3.655244519392917</v>
+        <v>3.655244519392915</v>
       </c>
       <c r="H117">
-        <v>1.827622259696457</v>
+        <v>1.827622259696459</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -5327,10 +5333,10 @@
         <v>75</v>
       </c>
       <c r="C118" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D118">
-        <v>24.74059021922428</v>
+        <v>24.74059021922429</v>
       </c>
       <c r="E118">
         <v>19.79247217537943</v>
@@ -5339,10 +5345,10 @@
         <v>14.84435413153457</v>
       </c>
       <c r="G118">
-        <v>9.896236087689713</v>
+        <v>9.896236087689715</v>
       </c>
       <c r="H118">
-        <v>4.948118043844858</v>
+        <v>4.948118043844857</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -5365,13 +5371,13 @@
         <v>75</v>
       </c>
       <c r="C119" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D119">
-        <v>65.79440134907252</v>
+        <v>72.10646711635748</v>
       </c>
       <c r="E119">
-        <v>57.68517369308598</v>
+        <v>57.685173693086</v>
       </c>
       <c r="F119">
         <v>43.26388026981451</v>
@@ -5403,22 +5409,22 @@
         <v>76</v>
       </c>
       <c r="C120" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D120">
-        <v>153.6111459837231</v>
+        <v>135.7194184714922</v>
       </c>
       <c r="E120">
-        <v>138.1177910288359</v>
+        <v>135.7194184714922</v>
       </c>
       <c r="F120">
         <v>110.4942328230687</v>
       </c>
       <c r="G120">
-        <v>34.89291562833748</v>
+        <v>34.89291562833749</v>
       </c>
       <c r="H120">
-        <v>17.44645781416875</v>
+        <v>17.44645781416876</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -5441,22 +5447,22 @@
         <v>76</v>
       </c>
       <c r="C121" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D121">
-        <v>22.45536981365113</v>
+        <v>19.83989972312273</v>
       </c>
       <c r="E121">
-        <v>20.19050151299392</v>
+        <v>19.83989972312272</v>
       </c>
       <c r="F121">
         <v>16.15240121039516</v>
       </c>
       <c r="G121">
-        <v>5.100758276966893</v>
+        <v>5.100758276966894</v>
       </c>
       <c r="H121">
-        <v>2.550379138483455</v>
+        <v>2.550379138483447</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -5479,7 +5485,7 @@
         <v>76</v>
       </c>
       <c r="C122" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -5491,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>12.99827696689214</v>
+        <v>12.99827696689213</v>
       </c>
       <c r="H122">
         <v>6.499138483446072</v>
@@ -5517,19 +5523,19 @@
         <v>76</v>
       </c>
       <c r="C123" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D123">
-        <v>80.9683177876037</v>
+        <v>71.53760187371404</v>
       </c>
       <c r="E123">
-        <v>72.80178221787112</v>
+        <v>71.53760187371404</v>
       </c>
       <c r="F123">
         <v>58.24142577429691</v>
       </c>
       <c r="G123">
-        <v>18.39202919188323</v>
+        <v>18.39202919188325</v>
       </c>
       <c r="H123">
         <v>9.196014595941623</v>
@@ -5555,22 +5561,22 @@
         <v>76</v>
       </c>
       <c r="C124" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D124">
-        <v>236.6315210650025</v>
+        <v>209.0700660118102</v>
       </c>
       <c r="E124">
-        <v>212.7646582413671</v>
+        <v>209.0700660118102</v>
       </c>
       <c r="F124">
         <v>170.2117265930937</v>
       </c>
       <c r="G124">
-        <v>40.75279458882164</v>
+        <v>40.75279458882165</v>
       </c>
       <c r="H124">
-        <v>20.37639729441084</v>
+        <v>20.37639729441083</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -5593,13 +5599,13 @@
         <v>77</v>
       </c>
       <c r="C125" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D125">
         <v>93.93009954128436</v>
       </c>
       <c r="E125">
-        <v>78.27508295107033</v>
+        <v>78.27508295107035</v>
       </c>
       <c r="F125">
         <v>62.62006636085627</v>
@@ -5631,16 +5637,16 @@
         <v>77</v>
       </c>
       <c r="C126" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D126">
         <v>10.17106605504587</v>
       </c>
       <c r="E126">
-        <v>8.475888379204893</v>
+        <v>8.475888379204882</v>
       </c>
       <c r="F126">
-        <v>6.780710703363914</v>
+        <v>6.780710703363913</v>
       </c>
       <c r="G126">
         <v>5.085533027522919</v>
@@ -5669,7 +5675,7 @@
         <v>77</v>
       </c>
       <c r="C127" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D127">
         <v>38.50692522935779</v>
@@ -5678,7 +5684,7 @@
         <v>32.08910435779816</v>
       </c>
       <c r="F127">
-        <v>25.67128348623854</v>
+        <v>25.67128348623853</v>
       </c>
       <c r="G127">
         <v>19.2534626146789</v>
@@ -5707,7 +5713,7 @@
         <v>78</v>
       </c>
       <c r="C128" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D128">
         <v>99.55487847989394</v>
@@ -5719,7 +5725,7 @@
         <v>66.36991898659595</v>
       </c>
       <c r="G128">
-        <v>49.77743923994695</v>
+        <v>49.77743923994697</v>
       </c>
       <c r="H128">
         <v>33.18495949329799</v>
@@ -5745,25 +5751,25 @@
         <v>78</v>
       </c>
       <c r="C129" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D129">
         <v>5.846005302695537</v>
       </c>
       <c r="E129">
-        <v>4.87167108557963</v>
+        <v>4.871671085579615</v>
       </c>
       <c r="F129">
         <v>3.897336868463691</v>
       </c>
       <c r="G129">
-        <v>2.923002651347781</v>
+        <v>2.923002651347768</v>
       </c>
       <c r="H129">
-        <v>1.94866843423185</v>
+        <v>1.948668434231846</v>
       </c>
       <c r="I129">
-        <v>0.9743342171159238</v>
+        <v>0.9743342171159228</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -5783,7 +5789,7 @@
         <v>79</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D130">
         <v>227.0210837438424</v>
@@ -5821,19 +5827,19 @@
         <v>79</v>
       </c>
       <c r="C131" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D131">
         <v>25.22104433497537</v>
       </c>
       <c r="E131">
-        <v>20.1768354679803</v>
+        <v>20.17683546798027</v>
       </c>
       <c r="F131">
         <v>15.13262660098521</v>
       </c>
       <c r="G131">
-        <v>10.08841773399014</v>
+        <v>10.08841773399015</v>
       </c>
       <c r="H131">
         <v>5.044208866995072</v>
@@ -5859,19 +5865,19 @@
         <v>79</v>
       </c>
       <c r="C132" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D132">
         <v>18.21871921182267</v>
       </c>
       <c r="E132">
-        <v>14.57497536945815</v>
+        <v>14.57497536945813</v>
       </c>
       <c r="F132">
         <v>10.9312315270936</v>
       </c>
       <c r="G132">
-        <v>7.287487684729066</v>
+        <v>7.287487684729067</v>
       </c>
       <c r="H132">
         <v>3.643743842364531</v>
@@ -5897,13 +5903,13 @@
         <v>80</v>
       </c>
       <c r="C133" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D133">
         <v>27.348</v>
       </c>
       <c r="E133">
-        <v>5.934966365682211</v>
+        <v>15.24039415222074</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -5935,7 +5941,7 @@
         <v>80</v>
       </c>
       <c r="C134" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -5973,13 +5979,13 @@
         <v>80</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>15.94343363431779</v>
+        <v>6.638005847779255</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -6011,34 +6017,34 @@
         <v>81</v>
       </c>
       <c r="C136" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D136">
-        <v>12.71272055947674</v>
+        <v>17.07836800670302</v>
       </c>
       <c r="E136">
-        <v>19.25537727313881</v>
+        <v>19.94361975804479</v>
       </c>
       <c r="F136">
-        <v>25.91954946152681</v>
+        <v>26.05363225564462</v>
       </c>
       <c r="G136">
-        <v>47.81742739854936</v>
+        <v>47.95151019266715</v>
       </c>
       <c r="H136">
-        <v>53.67571630509027</v>
+        <v>53.80979909920809</v>
       </c>
       <c r="I136">
-        <v>59.62482407651783</v>
+        <v>59.75890687063563</v>
       </c>
       <c r="J136">
-        <v>58.99885342859567</v>
+        <v>58.69298725516354</v>
       </c>
       <c r="K136">
-        <v>59.24407654514641</v>
+        <v>59.21615377002918</v>
       </c>
       <c r="L136">
-        <v>59.24883108787898</v>
+        <v>59.24883108787895</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6049,31 +6055,31 @@
         <v>81</v>
       </c>
       <c r="C137" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D137">
-        <v>25.42544111895349</v>
+        <v>34.15673601340605</v>
       </c>
       <c r="E137">
-        <v>38.5107545462776</v>
+        <v>39.88723951608956</v>
       </c>
       <c r="F137">
-        <v>51.83909892305363</v>
+        <v>52.10726451128922</v>
       </c>
       <c r="G137">
-        <v>95.6348547970987</v>
+        <v>95.90302038533433</v>
       </c>
       <c r="H137">
-        <v>107.3514326101806</v>
+        <v>107.6195981984161</v>
       </c>
       <c r="I137">
-        <v>119.2496481530357</v>
+        <v>119.5178137412713</v>
       </c>
       <c r="J137">
-        <v>117.9977068571913</v>
+        <v>117.3859745103271</v>
       </c>
       <c r="K137">
-        <v>118.4881530902928</v>
+        <v>118.4323075400583</v>
       </c>
       <c r="L137">
         <v>118.497662175758</v>
@@ -6087,31 +6093,31 @@
         <v>81</v>
       </c>
       <c r="C138" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D138">
-        <v>98.52358433594475</v>
+        <v>132.3573520519484</v>
       </c>
       <c r="E138">
-        <v>149.2291738668257</v>
+        <v>154.5630531248471</v>
       </c>
       <c r="F138">
-        <v>200.8765083268328</v>
+        <v>201.9156499812457</v>
       </c>
       <c r="G138">
-        <v>370.5850623387576</v>
+        <v>371.6242039931706</v>
       </c>
       <c r="H138">
-        <v>415.9868013644498</v>
+        <v>417.0259430188626</v>
       </c>
       <c r="I138">
-        <v>462.0923865930133</v>
+        <v>463.1315282474263</v>
       </c>
       <c r="J138">
-        <v>457.2411140716166</v>
+        <v>454.8706512275174</v>
       </c>
       <c r="K138">
-        <v>459.1415932248846</v>
+        <v>458.9251917177262</v>
       </c>
       <c r="L138">
         <v>459.1784409310619</v>
@@ -6125,34 +6131,34 @@
         <v>81</v>
       </c>
       <c r="C139" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D139">
-        <v>7.945450349672964</v>
+        <v>10.67398000418939</v>
       </c>
       <c r="E139">
-        <v>12.03461079571175</v>
+        <v>12.46476234877798</v>
       </c>
       <c r="F139">
-        <v>16.19971841345426</v>
+        <v>16.28352015977789</v>
       </c>
       <c r="G139">
-        <v>29.88589212409336</v>
+        <v>29.96969387041698</v>
       </c>
       <c r="H139">
-        <v>33.54732269068143</v>
+        <v>33.63112443700506</v>
       </c>
       <c r="I139">
-        <v>37.26551504782364</v>
+        <v>37.34931679414728</v>
       </c>
       <c r="J139">
-        <v>36.8742833928723</v>
+        <v>36.68311703447721</v>
       </c>
       <c r="K139">
-        <v>37.02754784071649</v>
+        <v>37.01009610626824</v>
       </c>
       <c r="L139">
-        <v>37.03051942992435</v>
+        <v>37.03051942992436</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6163,34 +6169,34 @@
         <v>82</v>
       </c>
       <c r="C140" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D140">
-        <v>0.4433060799999993</v>
+        <v>0.4433060799999994</v>
       </c>
       <c r="E140">
-        <v>1.882996097043181</v>
+        <v>1.882996097043169</v>
       </c>
       <c r="F140">
-        <v>2.934327152467707</v>
+        <v>2.934327152467728</v>
       </c>
       <c r="G140">
-        <v>4.607550668794518</v>
+        <v>4.607550668794547</v>
       </c>
       <c r="H140">
-        <v>5.85664647396098</v>
+        <v>5.856646473960989</v>
       </c>
       <c r="I140">
-        <v>7.076018379600702</v>
+        <v>7.076018379600729</v>
       </c>
       <c r="J140">
-        <v>8.201454335112674</v>
+        <v>8.201454335112702</v>
       </c>
       <c r="K140">
-        <v>8.255182010940993</v>
+        <v>8.255182010941002</v>
       </c>
       <c r="L140">
-        <v>8.30184217032188</v>
+        <v>8.301842170321869</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6201,34 +6207,34 @@
         <v>82</v>
       </c>
       <c r="C141" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D141">
-        <v>0.1477686933333333</v>
+        <v>0.1477686933333329</v>
       </c>
       <c r="E141">
-        <v>0.6276653656808571</v>
+        <v>0.6276653656810566</v>
       </c>
       <c r="F141">
-        <v>0.9781090508225705</v>
+        <v>0.9781090508225782</v>
       </c>
       <c r="G141">
-        <v>1.535850222931505</v>
+        <v>1.535850222931515</v>
       </c>
       <c r="H141">
-        <v>1.952215491320327</v>
+        <v>1.952215491320332</v>
       </c>
       <c r="I141">
-        <v>2.358672793200234</v>
+        <v>2.358672793200242</v>
       </c>
       <c r="J141">
-        <v>2.733818111704226</v>
+        <v>2.733818111704234</v>
       </c>
       <c r="K141">
-        <v>2.751727336980332</v>
+        <v>2.751727336980335</v>
       </c>
       <c r="L141">
-        <v>2.767280723440626</v>
+        <v>2.767280723440622</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6239,34 +6245,34 @@
         <v>82</v>
       </c>
       <c r="C142" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D142">
-        <v>2.068761706666664</v>
+        <v>2.068761706666677</v>
       </c>
       <c r="E142">
-        <v>8.787315119535426</v>
+        <v>8.787315119534785</v>
       </c>
       <c r="F142">
-        <v>13.69352671151599</v>
+        <v>13.6935267115161</v>
       </c>
       <c r="G142">
-        <v>21.50190312104108</v>
+        <v>21.50190312104121</v>
       </c>
       <c r="H142">
-        <v>27.33101687848457</v>
+        <v>27.3310168784846</v>
       </c>
       <c r="I142">
-        <v>33.02141910480326</v>
+        <v>33.02141910480339</v>
       </c>
       <c r="J142">
-        <v>38.27345356385913</v>
+        <v>38.27345356385925</v>
       </c>
       <c r="K142">
-        <v>38.52418271772461</v>
+        <v>38.52418271772468</v>
       </c>
       <c r="L142">
-        <v>38.74193012816873</v>
+        <v>38.74193012816869</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6277,34 +6283,34 @@
         <v>82</v>
       </c>
       <c r="C143" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D143">
-        <v>11.96926416</v>
+        <v>11.96926415999997</v>
       </c>
       <c r="E143">
-        <v>50.84089462016476</v>
+        <v>50.84089462016556</v>
       </c>
       <c r="F143">
-        <v>79.22683311662823</v>
+        <v>79.22683311662881</v>
       </c>
       <c r="G143">
-        <v>124.403868057452</v>
+        <v>124.4038680574527</v>
       </c>
       <c r="H143">
-        <v>158.1294547969466</v>
+        <v>158.1294547969468</v>
       </c>
       <c r="I143">
-        <v>191.052496249219</v>
+        <v>191.0524962492197</v>
       </c>
       <c r="J143">
-        <v>221.4392670480424</v>
+        <v>221.4392670480431</v>
       </c>
       <c r="K143">
-        <v>222.8899142954069</v>
+        <v>222.8899142954071</v>
       </c>
       <c r="L143">
-        <v>224.1497385986907</v>
+        <v>224.1497385986905</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6315,34 +6321,34 @@
         <v>83</v>
       </c>
       <c r="C144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D144">
-        <v>15.21375402505404</v>
+        <v>10.45365702656003</v>
       </c>
       <c r="E144">
-        <v>61.50605334130881</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>95.22683641313638</v>
+        <v>31.03429429760009</v>
       </c>
       <c r="G144">
-        <v>148.9076967964552</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>188.8979457714953</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>227.7627317631658</v>
+        <v>0</v>
       </c>
       <c r="J144">
-        <v>263.6010295430407</v>
+        <v>0</v>
       </c>
       <c r="K144">
-        <v>265.2436643338139</v>
+        <v>0</v>
       </c>
       <c r="L144">
-        <v>266.6759369691659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6350,37 +6356,37 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C145" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D145">
-        <v>230.764197694488</v>
+        <v>20.58063727104006</v>
       </c>
       <c r="E145">
-        <v>286.2912639009853</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>320.4028614966761</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>390.2389648382</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>413.2258114165372</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>456.1138087624343</v>
+        <v>0</v>
       </c>
       <c r="J145">
-        <v>459.5899155323231</v>
+        <v>0</v>
       </c>
       <c r="K145">
-        <v>463.6971159446177</v>
+        <v>0</v>
       </c>
       <c r="L145">
-        <v>468.5949167317827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6388,37 +6394,37 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C146" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D146">
-        <v>435.8891411042945</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>348.7113128834355</v>
+        <v>61.09055165575067</v>
       </c>
       <c r="F146">
-        <v>261.5334846625767</v>
+        <v>80.40649195947998</v>
       </c>
       <c r="G146">
-        <v>174.3556564417178</v>
+        <v>148.1191613340338</v>
       </c>
       <c r="H146">
-        <v>87.17782822085888</v>
+        <v>188.1094103090746</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>228.5103423382256</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>263.2279957661777</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>265.597865337476</v>
       </c>
       <c r="L146">
-        <v>0</v>
+        <v>266.6759369691659</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6426,37 +6432,37 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C147" t="s">
         <v>145</v>
       </c>
       <c r="D147">
-        <v>8.08</v>
+        <v>230.764197694488</v>
       </c>
       <c r="E147">
-        <v>6.464</v>
+        <v>286.2912639009854</v>
       </c>
       <c r="F147">
-        <v>4.848000000000001</v>
+        <v>320.4028614966757</v>
       </c>
       <c r="G147">
-        <v>3.232</v>
+        <v>390.2389648381995</v>
       </c>
       <c r="H147">
-        <v>1.616000000000001</v>
+        <v>413.2258114165371</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>456.113808762434</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>459.5899155323228</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>463.6971159446177</v>
       </c>
       <c r="L147">
-        <v>0</v>
+        <v>468.5949167317828</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6464,25 +6470,25 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C148" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D148">
-        <v>29.0985</v>
+        <v>435.8891411042944</v>
       </c>
       <c r="E148">
-        <v>12.252</v>
+        <v>348.7113128834356</v>
       </c>
       <c r="F148">
-        <v>9.227400000000003</v>
+        <v>261.5334846625767</v>
       </c>
       <c r="G148">
-        <v>6.126000000000002</v>
+        <v>174.3556564417178</v>
       </c>
       <c r="H148">
-        <v>3.062999999999998</v>
+        <v>87.17782822085887</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -6502,25 +6508,25 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C149" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D149">
-        <v>0.9105882352941178</v>
+        <v>8.08</v>
       </c>
       <c r="E149">
-        <v>0.7284705882352941</v>
+        <v>6.464</v>
       </c>
       <c r="F149">
-        <v>0.5463529411764707</v>
+        <v>4.848000000000002</v>
       </c>
       <c r="G149">
-        <v>0.3642352941176472</v>
+        <v>3.231999999999999</v>
       </c>
       <c r="H149">
-        <v>0.1821176470588236</v>
+        <v>1.616000000000001</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -6540,25 +6546,25 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C150" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D150">
-        <v>2.383941176470588</v>
+        <v>29.0985</v>
       </c>
       <c r="E150">
-        <v>1.057976470588221</v>
+        <v>12.252</v>
       </c>
       <c r="F150">
-        <v>0.7528235294117646</v>
+        <v>9.227399999999998</v>
       </c>
       <c r="G150">
-        <v>0.5018823529411766</v>
+        <v>6.126000000000001</v>
       </c>
       <c r="H150">
-        <v>0.2509411764705883</v>
+        <v>3.062999999999999</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -6578,25 +6584,25 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C151" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D151">
-        <v>10.75609756097559</v>
+        <v>0.9105882352941178</v>
       </c>
       <c r="E151">
-        <v>8.60487804878049</v>
+        <v>0.7284705882352942</v>
       </c>
       <c r="F151">
-        <v>6.453658536585366</v>
+        <v>0.5463529411764707</v>
       </c>
       <c r="G151">
-        <v>4.302439024390244</v>
+        <v>0.3642352941176471</v>
       </c>
       <c r="H151">
-        <v>2.151219512195123</v>
+        <v>0.1821176470588236</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -6616,25 +6622,25 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C152" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D152">
-        <v>43.54243902439026</v>
+        <v>2.383941176470588</v>
       </c>
       <c r="E152">
-        <v>18.33365853658537</v>
+        <v>1.057976470588234</v>
       </c>
       <c r="F152">
-        <v>13.75024390243902</v>
+        <v>0.7528235294117648</v>
       </c>
       <c r="G152">
-        <v>9.16682926829268</v>
+        <v>0.5018823529411764</v>
       </c>
       <c r="H152">
-        <v>4.583414634146337</v>
+        <v>0.2509411764705883</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -6654,25 +6660,25 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C153" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D153">
-        <v>4.264024390243903</v>
+        <v>10.75609756097561</v>
       </c>
       <c r="E153">
-        <v>3.411219512195122</v>
+        <v>8.604878048780488</v>
       </c>
       <c r="F153">
-        <v>2.558414634146349</v>
+        <v>6.453658536585366</v>
       </c>
       <c r="G153">
-        <v>1.705609756097561</v>
+        <v>4.302439024390243</v>
       </c>
       <c r="H153">
-        <v>0.8528048780487805</v>
+        <v>2.151219512195123</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -6692,25 +6698,25 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C154" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D154">
-        <v>2.624355825267519</v>
+        <v>43.54243902439025</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>18.33365853658537</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>13.75024390243902</v>
       </c>
       <c r="G154">
-        <v>0.02304000000000032</v>
+        <v>9.166829268292682</v>
       </c>
       <c r="H154">
-        <v>0.01151999999999966</v>
+        <v>4.583414634146339</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -6730,37 +6736,37 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C155" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D155">
-        <v>52.24313886984918</v>
+        <v>4.264024390243902</v>
       </c>
       <c r="E155">
-        <v>69.20437596434039</v>
+        <v>3.411219512195122</v>
       </c>
       <c r="F155">
-        <v>93.30218251014314</v>
+        <v>2.558414634146342</v>
       </c>
       <c r="G155">
-        <v>102.368304012899</v>
+        <v>1.705609756097561</v>
       </c>
       <c r="H155">
-        <v>78.58600799354721</v>
+        <v>0.8528048780487806</v>
       </c>
       <c r="I155">
-        <v>34.35105570280695</v>
+        <v>0</v>
       </c>
       <c r="J155">
-        <v>97.85558191314556</v>
+        <v>0</v>
       </c>
       <c r="K155">
-        <v>91.24947813741294</v>
+        <v>0</v>
       </c>
       <c r="L155">
-        <v>92.83038624339706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6768,28 +6774,28 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C156" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>2.624355825267622</v>
       </c>
       <c r="E156">
-        <v>11.70229776319744</v>
+        <v>0</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>0.02303999999999833</v>
       </c>
       <c r="H156">
-        <v>18.30567090150074</v>
+        <v>0.01151999999999811</v>
       </c>
       <c r="I156">
-        <v>50.14280945714501</v>
+        <v>0</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -6806,37 +6812,37 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C157" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D157">
-        <v>255.2592624137087</v>
+        <v>52.24313886984918</v>
       </c>
       <c r="E157">
-        <v>331.6123296180518</v>
+        <v>77.97829625468934</v>
       </c>
       <c r="F157">
-        <v>325.8113983393603</v>
+        <v>93.31693812807353</v>
       </c>
       <c r="G157">
-        <v>399.1791604904645</v>
+        <v>102.3830596308293</v>
       </c>
       <c r="H157">
-        <v>401.9444893415012</v>
+        <v>80.16245042092042</v>
       </c>
       <c r="I157">
-        <v>416.8881171382737</v>
+        <v>35.5890155391608</v>
       </c>
       <c r="J157">
-        <v>485.1894267250249</v>
+        <v>95.92961720061287</v>
       </c>
       <c r="K157">
-        <v>497.6111384327127</v>
+        <v>89.23753849497371</v>
       </c>
       <c r="L157">
-        <v>489.6759774300953</v>
+        <v>91.0385511338383</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6844,28 +6850,28 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C158" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D158">
-        <v>190.8228488372093</v>
+        <v>0</v>
       </c>
       <c r="E158">
-        <v>152.6582790697674</v>
+        <v>4.40754920314764</v>
       </c>
       <c r="F158">
-        <v>114.4937093023256</v>
+        <v>0</v>
       </c>
       <c r="G158">
-        <v>76.32913953488371</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>38.16456976744185</v>
+        <v>16.53098641650066</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>49.65553365445289</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -6882,37 +6888,37 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C159" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="D159">
-        <v>38.38888888888889</v>
+        <v>255.2592624137088</v>
       </c>
       <c r="E159">
-        <v>31.99074074074074</v>
+        <v>331.6123296180519</v>
       </c>
       <c r="F159">
-        <v>25.59259259259259</v>
+        <v>325.8113983393606</v>
       </c>
       <c r="G159">
-        <v>19.19444444444445</v>
+        <v>398.9149742939918</v>
       </c>
       <c r="H159">
-        <v>12.79629629629629</v>
+        <v>406.7704917883197</v>
       </c>
       <c r="I159">
-        <v>6.398148148148143</v>
+        <v>418.8590655889021</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>497.632053627783</v>
       </c>
       <c r="K159">
-        <v>0</v>
+        <v>510.0187156822233</v>
       </c>
       <c r="L159">
-        <v>0</v>
+        <v>501.0715322672873</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6920,28 +6926,28 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C160" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D160">
-        <v>110.9938271604938</v>
+        <v>190.8228488372093</v>
       </c>
       <c r="E160">
-        <v>92.49485596707818</v>
+        <v>152.6582790697674</v>
       </c>
       <c r="F160">
-        <v>73.99588477366255</v>
+        <v>114.4937093023256</v>
       </c>
       <c r="G160">
-        <v>55.4969135802469</v>
+        <v>76.32913953488371</v>
       </c>
       <c r="H160">
-        <v>36.99794238683128</v>
+        <v>38.16456976744185</v>
       </c>
       <c r="I160">
-        <v>18.49897119341563</v>
+        <v>0</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -6958,28 +6964,28 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C161" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D161">
-        <v>93.26543209876543</v>
+        <v>38.38888888888889</v>
       </c>
       <c r="E161">
-        <v>77.72119341563784</v>
+        <v>31.99074074074073</v>
       </c>
       <c r="F161">
-        <v>62.17695473251026</v>
+        <v>25.59259259259259</v>
       </c>
       <c r="G161">
-        <v>46.6327160493827</v>
+        <v>19.19444444444444</v>
       </c>
       <c r="H161">
-        <v>31.08847736625514</v>
+        <v>12.79629629629629</v>
       </c>
       <c r="I161">
-        <v>15.54423868312758</v>
+        <v>6.398148148148145</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -6996,28 +7002,28 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C162" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D162">
-        <v>27.16049382716049</v>
+        <v>110.9938271604938</v>
       </c>
       <c r="E162">
-        <v>22.63374485596708</v>
+        <v>92.49485596707818</v>
       </c>
       <c r="F162">
-        <v>18.10699588477366</v>
+        <v>73.99588477366255</v>
       </c>
       <c r="G162">
-        <v>25.80246913580247</v>
+        <v>72.66395884773662</v>
       </c>
       <c r="H162">
-        <v>9.053497942386832</v>
+        <v>36.99794238683128</v>
       </c>
       <c r="I162">
-        <v>4.526748971193417</v>
+        <v>18.49897119341563</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -7034,28 +7040,28 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C163" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D163">
-        <v>10.09814814814815</v>
+        <v>93.26543209876543</v>
       </c>
       <c r="E163">
-        <v>4.429012345679012</v>
+        <v>77.72119341563786</v>
       </c>
       <c r="F163">
-        <v>3.54320987654321</v>
+        <v>62.17695473251029</v>
       </c>
       <c r="G163">
-        <v>5.049074074074073</v>
+        <v>46.63271604938271</v>
       </c>
       <c r="H163">
-        <v>1.771604938271605</v>
+        <v>31.08847736625514</v>
       </c>
       <c r="I163">
-        <v>0.8858024691358022</v>
+        <v>15.54423868312758</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -7072,28 +7078,28 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C164" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D164">
-        <v>5.98148148148148</v>
+        <v>27.16049382716049</v>
       </c>
       <c r="E164">
-        <v>4.984567901234565</v>
+        <v>22.63374485596708</v>
       </c>
       <c r="F164">
-        <v>3.987654320987654</v>
+        <v>18.10699588477366</v>
       </c>
       <c r="G164">
-        <v>5.682407407407406</v>
+        <v>25.80246913580246</v>
       </c>
       <c r="H164">
-        <v>1.993827160493827</v>
+        <v>9.053497942386832</v>
       </c>
       <c r="I164">
-        <v>0.9969135802469137</v>
+        <v>4.526748971193416</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -7110,28 +7116,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C165" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D165">
-        <v>193.5210021619223</v>
+        <v>10.09814814814815</v>
       </c>
       <c r="E165">
-        <v>170.8077674897119</v>
+        <v>4.429012345679012</v>
       </c>
       <c r="F165">
-        <v>164.0542377132306</v>
+        <v>3.54320987654321</v>
       </c>
       <c r="G165">
-        <v>124.708024691358</v>
+        <v>5.049074074074073</v>
       </c>
       <c r="H165">
-        <v>83.13868312757199</v>
+        <v>1.771604938271605</v>
       </c>
       <c r="I165">
-        <v>41.569341563786</v>
+        <v>0.8858024691358022</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -7148,28 +7154,28 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C166" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D166">
-        <v>222.7654408436169</v>
+        <v>5.981481481481481</v>
       </c>
       <c r="E166">
-        <v>219.2441666666667</v>
+        <v>4.984567901234566</v>
       </c>
       <c r="F166">
-        <v>175.3953333333333</v>
+        <v>3.987654320987654</v>
       </c>
       <c r="G166">
-        <v>131.5465</v>
+        <v>5.682407407407406</v>
       </c>
       <c r="H166">
-        <v>46.15666666666667</v>
+        <v>1.993827160493827</v>
       </c>
       <c r="I166">
-        <v>23.07833333333333</v>
+        <v>0.9969135802469138</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -7186,28 +7192,28 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C167" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D167">
-        <v>91.17682926829269</v>
+        <v>199.9290266985088</v>
       </c>
       <c r="E167">
-        <v>39.98983739837399</v>
+        <v>170.8077674897119</v>
       </c>
       <c r="F167">
-        <v>37.40772489414218</v>
+        <v>165.3234082995742</v>
       </c>
       <c r="G167">
-        <v>39.98983739837399</v>
+        <v>124.708024691358</v>
       </c>
       <c r="H167">
-        <v>15.9959349593496</v>
+        <v>56.57308858449525</v>
       </c>
       <c r="I167">
-        <v>7.997967479674803</v>
+        <v>39.82342921810699</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -7224,28 +7230,28 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C168" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D168">
-        <v>262.1709778421283</v>
+        <v>230.206375</v>
       </c>
       <c r="E168">
-        <v>115.6174698795181</v>
+        <v>219.2441666666666</v>
       </c>
       <c r="F168">
-        <v>92.4939759036145</v>
+        <v>175.3953333333333</v>
       </c>
       <c r="G168">
-        <v>92.4939759036145</v>
+        <v>131.5465</v>
       </c>
       <c r="H168">
-        <v>46.24698795180724</v>
+        <v>46.15666666666667</v>
       </c>
       <c r="I168">
-        <v>23.12349397590361</v>
+        <v>23.07833333333333</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -7262,28 +7268,28 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C169" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D169">
-        <v>524.6176470588235</v>
+        <v>91.17682926829269</v>
       </c>
       <c r="E169">
-        <v>437.1813725490196</v>
+        <v>39.98983739837399</v>
       </c>
       <c r="F169">
-        <v>349.7450980392157</v>
+        <v>37.37512822222621</v>
       </c>
       <c r="G169">
-        <v>262.3088235294118</v>
+        <v>39.98983739837399</v>
       </c>
       <c r="H169">
-        <v>174.8725490196078</v>
+        <v>15.9959349593496</v>
       </c>
       <c r="I169">
-        <v>87.43627450980392</v>
+        <v>7.997967479674803</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -7300,28 +7306,28 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C170" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D170">
-        <v>71.88333333333333</v>
+        <v>263.6078313253012</v>
       </c>
       <c r="E170">
-        <v>59.90277777777776</v>
+        <v>126.9118324738676</v>
       </c>
       <c r="F170">
-        <v>25.22222222222222</v>
+        <v>92.4939759036145</v>
       </c>
       <c r="G170">
-        <v>18.91666666666666</v>
+        <v>126.9118324738676</v>
       </c>
       <c r="H170">
-        <v>12.61111111111111</v>
+        <v>46.24698795180724</v>
       </c>
       <c r="I170">
-        <v>6.305555555555554</v>
+        <v>23.12349397590361</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -7338,28 +7344,28 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C171" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D171">
-        <v>4.685185185185185</v>
+        <v>524.6176470588235</v>
       </c>
       <c r="E171">
-        <v>3.904320987654321</v>
+        <v>437.1813725490196</v>
       </c>
       <c r="F171">
-        <v>3.123456790123456</v>
+        <v>349.7450980392157</v>
       </c>
       <c r="G171">
-        <v>2.342592592592593</v>
+        <v>262.3088235294118</v>
       </c>
       <c r="H171">
-        <v>1.561728395061728</v>
+        <v>174.8725490196078</v>
       </c>
       <c r="I171">
-        <v>0.780864197530864</v>
+        <v>87.43627450980392</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -7376,28 +7382,28 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C172" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D172">
-        <v>136.085</v>
+        <v>71.88333333333333</v>
       </c>
       <c r="E172">
-        <v>129.28075</v>
+        <v>36.82386659773069</v>
       </c>
       <c r="F172">
-        <v>129.28075</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="G172">
-        <v>129.28075</v>
+        <v>18.91666666666666</v>
       </c>
       <c r="H172">
-        <v>45.36166666666666</v>
+        <v>12.61111111111111</v>
       </c>
       <c r="I172">
-        <v>22.68083333333334</v>
+        <v>6.305555555555554</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -7414,28 +7420,28 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C173" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D173">
-        <v>40.36470588235294</v>
+        <v>8.901851851851852</v>
       </c>
       <c r="E173">
-        <v>33.63725490196079</v>
+        <v>3.904320987654321</v>
       </c>
       <c r="F173">
-        <v>26.90980392156863</v>
+        <v>3.123456790123456</v>
       </c>
       <c r="G173">
-        <v>20.18235294117647</v>
+        <v>4.450925925925926</v>
       </c>
       <c r="H173">
-        <v>13.45490196078432</v>
+        <v>1.561728395061728</v>
       </c>
       <c r="I173">
-        <v>6.727450980392161</v>
+        <v>0.780864197530864</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -7452,28 +7458,28 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C174" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D174">
-        <v>517.1058823529412</v>
+        <v>136.085</v>
       </c>
       <c r="E174">
-        <v>430.9215686274511</v>
+        <v>129.28075</v>
       </c>
       <c r="F174">
-        <v>344.7372549019607</v>
+        <v>129.28075</v>
       </c>
       <c r="G174">
-        <v>258.5529411764706</v>
+        <v>129.28075</v>
       </c>
       <c r="H174">
-        <v>172.3686274509804</v>
+        <v>45.36166666666666</v>
       </c>
       <c r="I174">
-        <v>86.18431372549018</v>
+        <v>22.68083333333334</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -7490,28 +7496,28 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C175" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D175">
-        <v>181.445</v>
+        <v>40.36470588235294</v>
       </c>
       <c r="E175">
-        <v>151.2041666666667</v>
+        <v>33.63725490196079</v>
       </c>
       <c r="F175">
-        <v>120.9633333333333</v>
+        <v>26.90980392156863</v>
       </c>
       <c r="G175">
-        <v>90.7225</v>
+        <v>20.18235294117647</v>
       </c>
       <c r="H175">
-        <v>60.48166666666667</v>
+        <v>13.45490196078432</v>
       </c>
       <c r="I175">
-        <v>30.24083333333332</v>
+        <v>6.727450980392161</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -7528,28 +7534,28 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C176" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="D176">
-        <v>19.19753086419753</v>
+        <v>517.1058823529412</v>
       </c>
       <c r="E176">
-        <v>15.99794238683128</v>
+        <v>430.9215686274511</v>
       </c>
       <c r="F176">
-        <v>12.79835390946502</v>
+        <v>344.7372549019607</v>
       </c>
       <c r="G176">
-        <v>9.598765432098764</v>
+        <v>258.5529411764706</v>
       </c>
       <c r="H176">
-        <v>6.39917695473251</v>
+        <v>172.3686274509804</v>
       </c>
       <c r="I176">
-        <v>3.199588477366255</v>
+        <v>86.18431372549018</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -7566,28 +7572,28 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C177" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D177">
-        <v>55.5</v>
+        <v>181.445</v>
       </c>
       <c r="E177">
-        <v>46.24999999999999</v>
+        <v>151.2041666666667</v>
       </c>
       <c r="F177">
-        <v>37</v>
+        <v>120.9633333333333</v>
       </c>
       <c r="G177">
-        <v>27.75</v>
+        <v>90.7225</v>
       </c>
       <c r="H177">
-        <v>18.5</v>
+        <v>60.48166666666667</v>
       </c>
       <c r="I177">
-        <v>9.25</v>
+        <v>30.24083333333332</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -7604,28 +7610,28 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C178" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D178">
-        <v>104.9259259259259</v>
+        <v>19.19753086419753</v>
       </c>
       <c r="E178">
-        <v>87.43827160493825</v>
+        <v>15.99794238683128</v>
       </c>
       <c r="F178">
-        <v>69.95061728395061</v>
+        <v>12.79835390946502</v>
       </c>
       <c r="G178">
-        <v>52.46296296296295</v>
+        <v>9.598765432098764</v>
       </c>
       <c r="H178">
-        <v>34.9753086419753</v>
+        <v>6.39917695473251</v>
       </c>
       <c r="I178">
-        <v>17.48765432098764</v>
+        <v>3.199588477366255</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -7642,28 +7648,28 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C179" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D179">
-        <v>2.006172839506173</v>
+        <v>55.5</v>
       </c>
       <c r="E179">
-        <v>1.671810699588477</v>
+        <v>46.24999999999999</v>
       </c>
       <c r="F179">
-        <v>1.337448559670782</v>
+        <v>37</v>
       </c>
       <c r="G179">
-        <v>1.003086419753086</v>
+        <v>27.75</v>
       </c>
       <c r="H179">
-        <v>0.6687242798353911</v>
+        <v>18.5</v>
       </c>
       <c r="I179">
-        <v>0.3343621399176954</v>
+        <v>9.25</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -7680,28 +7686,28 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C180" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D180">
-        <v>16.72469135802469</v>
+        <v>104.9259259259259</v>
       </c>
       <c r="E180">
-        <v>13.93724279835391</v>
+        <v>87.43827160493825</v>
       </c>
       <c r="F180">
-        <v>11.14979423868312</v>
+        <v>69.95061728395061</v>
       </c>
       <c r="G180">
-        <v>4.401234567901234</v>
+        <v>52.46296296296295</v>
       </c>
       <c r="H180">
-        <v>2.934156378600823</v>
+        <v>34.9753086419753</v>
       </c>
       <c r="I180">
-        <v>1.467078189300412</v>
+        <v>17.48765432098764</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -7718,28 +7724,28 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C181" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D181">
-        <v>72.58</v>
+        <v>2.006172839506173</v>
       </c>
       <c r="E181">
-        <v>60.48333333333334</v>
+        <v>1.671810699588477</v>
       </c>
       <c r="F181">
-        <v>48.38666666666667</v>
+        <v>1.337448559670782</v>
       </c>
       <c r="G181">
-        <v>36.29</v>
+        <v>1.671810699588477</v>
       </c>
       <c r="H181">
-        <v>24.19333333333334</v>
+        <v>0.6687242798353911</v>
       </c>
       <c r="I181">
-        <v>12.09666666666666</v>
+        <v>0.3343621399176954</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -7756,28 +7762,28 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C182" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D182">
-        <v>1.791145833333334</v>
+        <v>16.72469135802469</v>
       </c>
       <c r="E182">
-        <v>1.492621527777778</v>
+        <v>13.93724279835391</v>
       </c>
       <c r="F182">
-        <v>0.6284722222222222</v>
+        <v>11.14979423868312</v>
       </c>
       <c r="G182">
-        <v>0.6284722222222222</v>
+        <v>4.401234567901234</v>
       </c>
       <c r="H182">
-        <v>0.3142361111111111</v>
+        <v>2.934156378600823</v>
       </c>
       <c r="I182">
-        <v>0.2985243055555556</v>
+        <v>1.467078189300412</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -7794,28 +7800,28 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C183" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="D183">
-        <v>46.77283950617284</v>
+        <v>72.58</v>
       </c>
       <c r="E183">
-        <v>38.97736625514404</v>
+        <v>60.48333333333334</v>
       </c>
       <c r="F183">
-        <v>31.18189300411523</v>
+        <v>48.38666666666667</v>
       </c>
       <c r="G183">
-        <v>23.38641975308642</v>
+        <v>36.29</v>
       </c>
       <c r="H183">
-        <v>8.205761316872429</v>
+        <v>24.19333333333334</v>
       </c>
       <c r="I183">
-        <v>4.102880658436215</v>
+        <v>12.09666666666666</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -7832,37 +7838,37 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C184" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="D184">
-        <v>10.35792440643919</v>
+        <v>1.791145833333334</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1.492621527777778</v>
       </c>
       <c r="F184">
-        <v>40.02910249269965</v>
+        <v>1.194097222222222</v>
       </c>
       <c r="G184">
-        <v>48.03773580246911</v>
+        <v>0.8955729166666668</v>
       </c>
       <c r="H184">
-        <v>20.60818865925925</v>
+        <v>0.3142361111111111</v>
       </c>
       <c r="I184">
-        <v>12.72999998765432</v>
+        <v>0.2985243055555556</v>
       </c>
       <c r="J184">
-        <v>13.12671292112678</v>
+        <v>0</v>
       </c>
       <c r="K184">
-        <v>9.98515001994793</v>
+        <v>0</v>
       </c>
       <c r="L184">
-        <v>6.053718923518419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7870,37 +7876,37 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C185" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>46.77283950617284</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>38.97736625514404</v>
       </c>
       <c r="F185">
-        <v>20.26854969451469</v>
+        <v>31.18189300411523</v>
       </c>
       <c r="G185">
-        <v>78.9674469135802</v>
+        <v>23.38641975308642</v>
       </c>
       <c r="H185">
-        <v>21.20427517258836</v>
+        <v>8.205761316872429</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>4.102880658436215</v>
       </c>
       <c r="J185">
-        <v>20.92637343209876</v>
+        <v>0</v>
       </c>
       <c r="K185">
-        <v>9.002288948148145</v>
+        <v>0</v>
       </c>
       <c r="L185">
-        <v>18.24079059757556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7908,37 +7914,37 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C186" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D186">
-        <v>61.5513696307724</v>
+        <v>17.01464423054637</v>
       </c>
       <c r="E186">
-        <v>58.9250205761317</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>69.06643543807421</v>
+        <v>40.53677072723708</v>
       </c>
       <c r="G186">
-        <v>87.83164444444442</v>
+        <v>48.03773580246915</v>
       </c>
       <c r="H186">
-        <v>105.8368954251078</v>
+        <v>20.69767465536775</v>
       </c>
       <c r="I186">
-        <v>42.69114498196824</v>
+        <v>9.264197366571073</v>
       </c>
       <c r="J186">
-        <v>387.8437712461582</v>
+        <v>11.97122545177048</v>
       </c>
       <c r="K186">
-        <v>371.1085490375085</v>
+        <v>8.276396163922582</v>
       </c>
       <c r="L186">
-        <v>405.3354066854949</v>
+        <v>5.159714403111062</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -7946,10 +7952,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C187" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -7958,25 +7964,25 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>22.55305674993308</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>61.80040164609053</v>
       </c>
       <c r="H187">
-        <v>331.4157541169583</v>
+        <v>0.5006931023107873</v>
       </c>
       <c r="I187">
-        <v>270.5389754230025</v>
+        <v>0</v>
       </c>
       <c r="J187">
-        <v>251.7807879269352</v>
+        <v>7.04524578765432</v>
       </c>
       <c r="K187">
-        <v>295.4883427343927</v>
+        <v>7.04524578765432</v>
       </c>
       <c r="L187">
-        <v>272.2776209371881</v>
+        <v>13.38882641684786</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7984,37 +7990,37 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C188" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>66.67778926004159</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>58.9250205761317</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>70.08177190714906</v>
       </c>
       <c r="G188">
-        <v>43.37242592592591</v>
+        <v>87.83164444444444</v>
       </c>
       <c r="H188">
-        <v>141.2768442778118</v>
+        <v>133.9106556603406</v>
       </c>
       <c r="I188">
-        <v>219.56314967523</v>
+        <v>44.62994972464974</v>
       </c>
       <c r="J188">
-        <v>209.0272562044785</v>
+        <v>329.5505340180617</v>
       </c>
       <c r="K188">
-        <v>202.1036619376912</v>
+        <v>381.1943465503535</v>
       </c>
       <c r="L188">
-        <v>196.2661913941601</v>
+        <v>414.5356578361415</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8022,37 +8028,37 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C189" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="D189">
-        <v>1.925321832457388</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>54.85067155838455</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>54.85067155838455</v>
+        <v>0</v>
       </c>
       <c r="G189">
-        <v>58.43966477117193</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>320.0139797465383</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>276.2656497782609</v>
       </c>
       <c r="J189">
-        <v>0</v>
+        <v>312.3556196466071</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>283.8161354471089</v>
       </c>
       <c r="L189">
-        <v>0</v>
+        <v>263.0215611913064</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8060,37 +8066,37 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C190" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190">
-        <v>136.1421813378715</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>136.1421813378715</v>
+        <v>0</v>
       </c>
       <c r="G190">
-        <v>136.1421813378715</v>
+        <v>43.37242592592594</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>176.8434163548153</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>228.2558661456201</v>
       </c>
       <c r="J190">
-        <v>0</v>
+        <v>216.5794595743867</v>
       </c>
       <c r="K190">
-        <v>0</v>
+        <v>208.9286305270747</v>
       </c>
       <c r="L190">
-        <v>0</v>
+        <v>203.4453609872054</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8098,37 +8104,37 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C191" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D191">
-        <v>592.608166150177</v>
+        <v>3.038345899220474</v>
       </c>
       <c r="E191">
-        <v>700.9047349320823</v>
+        <v>54.86974579025338</v>
       </c>
       <c r="F191">
-        <v>757.355659391105</v>
+        <v>54.86974579025338</v>
       </c>
       <c r="G191">
-        <v>918.845202505139</v>
+        <v>59.06566354311376</v>
       </c>
       <c r="H191">
-        <v>1675.946536795159</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>1807.712117478791</v>
+        <v>0</v>
       </c>
       <c r="J191">
-        <v>2042.256626443023</v>
+        <v>0</v>
       </c>
       <c r="K191">
-        <v>2061.786122030519</v>
+        <v>0</v>
       </c>
       <c r="L191">
-        <v>2082.486875340562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -8136,22 +8142,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C192" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D192">
-        <v>3.557896128632045</v>
+        <v>19.03769417723825</v>
       </c>
       <c r="E192">
-        <v>3.557896128632045</v>
+        <v>130.4700909682142</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>130.4700909682142</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>159.8590893564468</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -8174,37 +8180,37 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C193" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D193">
-        <v>80.23051411522165</v>
+        <v>605.9644549513342</v>
       </c>
       <c r="E193">
-        <v>120.6376576290975</v>
+        <v>701.1336257145088</v>
       </c>
       <c r="F193">
-        <v>180.3526201265017</v>
+        <v>757.1933901105389</v>
       </c>
       <c r="G193">
-        <v>279.1966275812783</v>
+        <v>926.357187768441</v>
       </c>
       <c r="H193">
-        <v>12.19946518368441</v>
+        <v>1657.829731777515</v>
       </c>
       <c r="I193">
-        <v>56.06356061643442</v>
+        <v>1803.330225493556</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>2042.314778930708</v>
       </c>
       <c r="K193">
-        <v>0</v>
+        <v>2061.695871309304</v>
       </c>
       <c r="L193">
-        <v>0</v>
+        <v>2082.507106158565</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -8212,22 +8218,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C194" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D194">
-        <v>52.73744521839709</v>
+        <v>22.33184183417982</v>
       </c>
       <c r="E194">
-        <v>61.20325405479771</v>
+        <v>22.33184183417982</v>
       </c>
       <c r="F194">
-        <v>52.2837648657851</v>
+        <v>0</v>
       </c>
       <c r="G194">
-        <v>10.45136816362144</v>
+        <v>0</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -8250,37 +8256,37 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C195" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D195">
-        <v>515.7074484229883</v>
+        <v>0.5196656648994875</v>
       </c>
       <c r="E195">
-        <v>627.7797128737822</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>692.4092011383016</v>
+        <v>0</v>
       </c>
       <c r="G195">
-        <v>845.4676839751113</v>
+        <v>5.454624168222852</v>
       </c>
       <c r="H195">
-        <v>944.4170500207983</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>1044.868001506104</v>
+        <v>0</v>
       </c>
       <c r="J195">
-        <v>1140.461959621418</v>
+        <v>0</v>
       </c>
       <c r="K195">
-        <v>1144.724979318485</v>
+        <v>0</v>
       </c>
       <c r="L195">
-        <v>1153.96856608495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8288,28 +8294,28 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C196" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="D196">
-        <v>13.55592484064287</v>
+        <v>42.923832818275</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>119.4347962701177</v>
       </c>
       <c r="F196">
-        <v>18.56020864632118</v>
+        <v>181.3918521828307</v>
       </c>
       <c r="G196">
-        <v>22.20818783076992</v>
+        <v>209.0468649583856</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>28.55692693847944</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>60.05960064206356</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -8326,22 +8332,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C197" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D197">
-        <v>3.796323914597321</v>
+        <v>53.85046928516019</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>61.22232828666657</v>
       </c>
       <c r="F197">
-        <v>7.344886940408113</v>
+        <v>56.82196609878325</v>
       </c>
       <c r="G197">
-        <v>7.344886940408113</v>
+        <v>19.28540009972224</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -8364,37 +8370,37 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C198" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D198">
-        <v>58.84135259827608</v>
+        <v>515.7074484229879</v>
       </c>
       <c r="E198">
-        <v>76.09211285906645</v>
+        <v>627.779712873782</v>
       </c>
       <c r="F198">
-        <v>86.8421954949804</v>
+        <v>692.4092011383011</v>
       </c>
       <c r="G198">
-        <v>106.5718033513804</v>
+        <v>845.4676839751116</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>944.4170500207983</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1044.868001506103</v>
       </c>
       <c r="J198">
-        <v>0</v>
+        <v>1140.461959621419</v>
       </c>
       <c r="K198">
-        <v>0</v>
+        <v>1144.724979318485</v>
       </c>
       <c r="L198">
-        <v>0</v>
+        <v>1153.96856608495</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8402,37 +8408,37 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C199" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D199">
-        <v>91.187278524202</v>
+        <v>1.993754929278449</v>
       </c>
       <c r="E199">
-        <v>103.0470511306714</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>108.4061461122643</v>
+        <v>18.57244382707873</v>
       </c>
       <c r="G199">
-        <v>122.7447663143434</v>
+        <v>22.19577844556773</v>
       </c>
       <c r="H199">
-        <v>243.2997399794416</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>246.1466280082764</v>
+        <v>0</v>
       </c>
       <c r="J199">
-        <v>280.6590364576349</v>
+        <v>0</v>
       </c>
       <c r="K199">
-        <v>283.6625924346869</v>
+        <v>0</v>
       </c>
       <c r="L199">
-        <v>281.2012449621159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -8440,28 +8446,28 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C200" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D200">
-        <v>0.2158541666666667</v>
+        <v>0</v>
       </c>
       <c r="E200">
-        <v>31.21345536502316</v>
+        <v>0</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
       <c r="G200">
-        <v>31.17848104064645</v>
+        <v>6.614464143451698</v>
       </c>
       <c r="H200">
         <v>0</v>
       </c>
       <c r="I200">
-        <v>30.9976011983565</v>
+        <v>0</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -8478,22 +8484,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C201" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D201">
-        <v>32.2509725352854</v>
+        <v>56.10175700595214</v>
       </c>
       <c r="E201">
-        <v>18.90300470958329</v>
+        <v>76.01428040802038</v>
       </c>
       <c r="F201">
-        <v>29.86679827426953</v>
+        <v>86.90337139876743</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>106.5097564253699</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -8516,37 +8522,37 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C202" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="D202">
-        <v>18.73407190350795</v>
+        <v>88.44768293187803</v>
       </c>
       <c r="E202">
-        <v>26.43478753045784</v>
+        <v>102.9692186796253</v>
       </c>
       <c r="F202">
-        <v>31.53523210745718</v>
+        <v>108.4673220160514</v>
       </c>
       <c r="G202">
-        <v>31.53523210745717</v>
+        <v>122.6827193883329</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>243.2458601585066</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>246.2462288228823</v>
       </c>
       <c r="J202">
-        <v>0</v>
+        <v>280.6245365091555</v>
       </c>
       <c r="K202">
-        <v>0</v>
+        <v>283.6149440991486</v>
       </c>
       <c r="L202">
-        <v>0</v>
+        <v>281.1553403965952</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -8554,37 +8560,151 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
+        <v>141</v>
+      </c>
+      <c r="C203" t="s">
+        <v>166</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>31.19788887481394</v>
+      </c>
+      <c r="F203">
+        <v>30.17670051432128</v>
+      </c>
+      <c r="G203">
+        <v>30.89897096099989</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>31.19788887481394</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
         <v>142</v>
       </c>
-      <c r="C203" t="s">
-        <v>163</v>
-      </c>
-      <c r="D203">
-        <v>181.4191690980392</v>
-      </c>
-      <c r="E203">
-        <v>220.6045509075028</v>
-      </c>
-      <c r="F203">
-        <v>243.0542017181528</v>
-      </c>
-      <c r="G203">
-        <v>290.6634209671805</v>
-      </c>
-      <c r="H203">
-        <v>323.4626603912274</v>
-      </c>
-      <c r="I203">
+      <c r="C204" t="s">
+        <v>146</v>
+      </c>
+      <c r="D204">
+        <v>32.1999968666647</v>
+      </c>
+      <c r="E204">
+        <v>12.23903331246049</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>143</v>
+      </c>
+      <c r="C205" t="s">
+        <v>148</v>
+      </c>
+      <c r="D205">
+        <v>17.63823366657836</v>
+      </c>
+      <c r="E205">
+        <v>26.40365455003941</v>
+      </c>
+      <c r="F205">
+        <v>31.55970246897201</v>
+      </c>
+      <c r="G205">
+        <v>31.55970246897201</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>144</v>
+      </c>
+      <c r="C206" t="s">
+        <v>165</v>
+      </c>
+      <c r="D206">
+        <v>181.4191690980391</v>
+      </c>
+      <c r="E206">
+        <v>220.6045509075029</v>
+      </c>
+      <c r="F206">
+        <v>243.0542017181527</v>
+      </c>
+      <c r="G206">
+        <v>290.6634209671802</v>
+      </c>
+      <c r="H206">
+        <v>323.4626603912272</v>
+      </c>
+      <c r="I206">
         <v>356.9004207556519</v>
       </c>
-      <c r="J203">
-        <v>381.6982187031361</v>
-      </c>
-      <c r="K203">
+      <c r="J206">
+        <v>381.6982187031364</v>
+      </c>
+      <c r="K206">
         <v>384.0540812278405</v>
       </c>
-      <c r="L203">
-        <v>383.2749919686187</v>
+      <c r="L206">
+        <v>383.2749919686186</v>
       </c>
     </row>
   </sheetData>
@@ -8605,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
